--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-255516.9498264281</v>
+        <v>-257299.8556862913</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6028847.321918218</v>
+        <v>6028847.321918217</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>285.704157966725</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>275.1143078164004</v>
+        <v>275.1143078164005</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>327.3073119374289</v>
       </c>
       <c r="G11" t="n">
-        <v>332.9594913636451</v>
+        <v>332.9594913636452</v>
       </c>
       <c r="H11" t="n">
-        <v>231.4915937356466</v>
+        <v>231.4915937356467</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.22713566997376</v>
+        <v>66.22713566997382</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>131.3816879599484</v>
       </c>
       <c r="U11" t="n">
-        <v>19.52737947866464</v>
+        <v>94.72606221386638</v>
       </c>
       <c r="V11" t="n">
-        <v>248.1835246658524</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.669204851771</v>
+        <v>306.6692048517712</v>
       </c>
     </row>
     <row r="12">
@@ -1452,19 +1452,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>67.87633176035621</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>78.0763466511184</v>
+        <v>78.07634665111848</v>
       </c>
       <c r="F12" t="n">
-        <v>65.50047858910133</v>
+        <v>65.50047858910142</v>
       </c>
       <c r="G12" t="n">
-        <v>135.8590221842308</v>
+        <v>56.29028837994828</v>
       </c>
       <c r="H12" t="n">
-        <v>97.89834799213801</v>
+        <v>18.32961418785555</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>64.54059415929279</v>
+        <v>64.54059415929288</v>
       </c>
       <c r="T12" t="n">
         <v>114.6124383743877</v>
       </c>
       <c r="U12" t="n">
-        <v>146.2749841333383</v>
+        <v>146.2749841333384</v>
       </c>
       <c r="V12" t="n">
-        <v>153.2318533451427</v>
+        <v>153.2318533451428</v>
       </c>
       <c r="W12" t="n">
         <v>172.1262493566371</v>
       </c>
       <c r="X12" t="n">
-        <v>204.5245043917315</v>
+        <v>204.5245043917325</v>
       </c>
       <c r="Y12" t="n">
-        <v>126.1139619730218</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1528,25 +1528,25 @@
         <v>100.2632463776548</v>
       </c>
       <c r="C13" t="n">
-        <v>87.67808729434529</v>
+        <v>87.67808729434537</v>
       </c>
       <c r="D13" t="n">
-        <v>69.04673921392981</v>
+        <v>69.0467392139299</v>
       </c>
       <c r="E13" t="n">
-        <v>66.86522884228663</v>
+        <v>66.86522884228671</v>
       </c>
       <c r="F13" t="n">
-        <v>65.8523142186487</v>
+        <v>65.85231421864879</v>
       </c>
       <c r="G13" t="n">
-        <v>87.17769483121779</v>
+        <v>87.17769483121789</v>
       </c>
       <c r="H13" t="n">
-        <v>71.59325136630864</v>
+        <v>71.59325136630871</v>
       </c>
       <c r="I13" t="n">
-        <v>38.45470665437193</v>
+        <v>38.45470665437202</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.7651314296843</v>
+        <v>41.76513142968437</v>
       </c>
       <c r="S13" t="n">
-        <v>122.7587393607691</v>
+        <v>122.7587393607692</v>
       </c>
       <c r="T13" t="n">
-        <v>143.0592298077221</v>
+        <v>143.0592298077222</v>
       </c>
       <c r="U13" t="n">
-        <v>206.6824109673197</v>
+        <v>206.6824109673198</v>
       </c>
       <c r="V13" t="n">
         <v>172.5689095195455</v>
@@ -1591,10 +1591,10 @@
         <v>206.9542645323085</v>
       </c>
       <c r="X13" t="n">
-        <v>146.1409215847546</v>
+        <v>146.1409215847547</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.0159195478122</v>
+        <v>139.0159195478123</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>303.165107859198</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>285.704157966725</v>
+        <v>22.9133667737887</v>
       </c>
       <c r="D14" t="n">
         <v>275.1143078164004</v>
       </c>
       <c r="E14" t="n">
-        <v>302.3616362679792</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>327.3073119374289</v>
       </c>
       <c r="G14" t="n">
         <v>332.9594913636451</v>
@@ -1625,7 +1625,7 @@
         <v>231.4915937356466</v>
       </c>
       <c r="I14" t="n">
-        <v>23.94276850040934</v>
+        <v>23.94276850040933</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.22713566997373</v>
+        <v>66.22713566997375</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>131.3816879599484</v>
       </c>
       <c r="U14" t="n">
         <v>171.5549581157774</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>290.1623668741865</v>
       </c>
       <c r="Y14" t="n">
-        <v>187.2030363032193</v>
+        <v>306.669204851771</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>135.8590221842308</v>
       </c>
       <c r="H15" t="n">
-        <v>34.57325905991194</v>
+        <v>97.89834799213801</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.988926598084433</v>
+        <v>7.988926598084419</v>
       </c>
       <c r="S15" t="n">
         <v>144.1093279635753</v>
       </c>
       <c r="T15" t="n">
-        <v>194.1811721786702</v>
+        <v>130.856083246446</v>
       </c>
       <c r="U15" t="n">
         <v>225.8437179376209</v>
@@ -1765,22 +1765,22 @@
         <v>100.2632463776548</v>
       </c>
       <c r="C16" t="n">
-        <v>87.67808729434529</v>
+        <v>87.6780872943453</v>
       </c>
       <c r="D16" t="n">
-        <v>69.04673921392981</v>
+        <v>69.04673921392983</v>
       </c>
       <c r="E16" t="n">
-        <v>66.86522884228663</v>
+        <v>66.86522884228664</v>
       </c>
       <c r="F16" t="n">
-        <v>65.8523142186487</v>
+        <v>65.85231421864871</v>
       </c>
       <c r="G16" t="n">
-        <v>87.17769483121781</v>
+        <v>87.17769483121782</v>
       </c>
       <c r="H16" t="n">
-        <v>71.59325136630862</v>
+        <v>71.59325136630864</v>
       </c>
       <c r="I16" t="n">
         <v>38.45470665437193</v>
@@ -1853,7 +1853,7 @@
         <v>222.7929024636967</v>
       </c>
       <c r="F17" t="n">
-        <v>247.7385781331463</v>
+        <v>234.3122515259591</v>
       </c>
       <c r="G17" t="n">
         <v>253.3907575593626</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>51.81295415566579</v>
+        <v>51.81295415566585</v>
       </c>
       <c r="U17" t="n">
-        <v>91.98622431149481</v>
+        <v>91.98622431149488</v>
       </c>
       <c r="V17" t="n">
-        <v>155.1884642543811</v>
+        <v>168.6147908615699</v>
       </c>
       <c r="W17" t="n">
-        <v>190.1035011088479</v>
+        <v>190.103501108848</v>
       </c>
       <c r="X17" t="n">
-        <v>210.5936330699039</v>
+        <v>210.593633069904</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.1004710474885</v>
+        <v>227.1004710474886</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>132.1465500812897</v>
+        <v>135.8590221842308</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>34.5732590599137</v>
       </c>
       <c r="I18" t="n">
-        <v>38.28573116285294</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>20.69451257337226</v>
       </c>
       <c r="C19" t="n">
-        <v>8.109353490062745</v>
+        <v>8.109353490062801</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>7.60896102693526</v>
+        <v>166.7464286355003</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>202.3274731650516</v>
+        <v>110.1387961397052</v>
       </c>
       <c r="T19" t="n">
-        <v>116.7228670010251</v>
+        <v>222.6279636120047</v>
       </c>
       <c r="U19" t="n">
         <v>127.1136771630372</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>93.00017571526297</v>
       </c>
       <c r="W19" t="n">
-        <v>127.3855307280259</v>
+        <v>127.385530728026</v>
       </c>
       <c r="X19" t="n">
-        <v>66.57218778047206</v>
+        <v>66.57218778047212</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.4471857435297</v>
+        <v>59.44718574352976</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>222.7929024636967</v>
       </c>
       <c r="F20" t="n">
-        <v>247.7385781331463</v>
+        <v>247.7385781331464</v>
       </c>
       <c r="G20" t="n">
         <v>253.3907575593626</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>38.38662754847712</v>
+        <v>51.81295415566585</v>
       </c>
       <c r="U20" t="n">
-        <v>91.98622431149481</v>
+        <v>78.55989770430632</v>
       </c>
       <c r="V20" t="n">
-        <v>168.6147908615698</v>
+        <v>168.6147908615699</v>
       </c>
       <c r="W20" t="n">
-        <v>190.1035011088479</v>
+        <v>190.103501108848</v>
       </c>
       <c r="X20" t="n">
-        <v>210.5936330699039</v>
+        <v>210.593633069904</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.1004710474885</v>
+        <v>227.1004710474886</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2163,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>84.11997663241264</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2178,7 +2178,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>7.988926598084433</v>
       </c>
       <c r="S21" t="n">
-        <v>144.1093279635753</v>
+        <v>42.4985078684986</v>
       </c>
       <c r="T21" t="n">
         <v>194.1811721786702</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.69451257337221</v>
+        <v>20.69451257337226</v>
       </c>
       <c r="C22" t="n">
-        <v>8.109353490062745</v>
+        <v>8.109353490062801</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.60896102693526</v>
+        <v>7.608961026935317</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.1619851705912</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>61.2078534355589</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.19000555648653</v>
+        <v>202.3274731650516</v>
       </c>
       <c r="T22" t="n">
-        <v>63.49049600343957</v>
+        <v>222.6279636120047</v>
       </c>
       <c r="U22" t="n">
         <v>127.1136771630372</v>
       </c>
       <c r="V22" t="n">
-        <v>172.652471260478</v>
+        <v>93.00017571526297</v>
       </c>
       <c r="W22" t="n">
-        <v>127.3855307280259</v>
+        <v>127.385530728026</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>66.57218778047212</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.4471857435297</v>
+        <v>59.44718574352976</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>222.7929024636967</v>
       </c>
       <c r="F23" t="n">
-        <v>247.7385781331463</v>
+        <v>247.7385781331464</v>
       </c>
       <c r="G23" t="n">
         <v>253.3907575593626</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>51.81295415566579</v>
+        <v>51.81295415566585</v>
       </c>
       <c r="U23" t="n">
-        <v>91.98622431149481</v>
+        <v>91.98622431149487</v>
       </c>
       <c r="V23" t="n">
-        <v>168.6147908615698</v>
+        <v>168.6147908615699</v>
       </c>
       <c r="W23" t="n">
-        <v>190.1035011088479</v>
+        <v>190.103501108848</v>
       </c>
       <c r="X23" t="n">
-        <v>210.5936330699039</v>
+        <v>210.593633069904</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.1004710474885</v>
+        <v>227.1004710474886</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>135.8590221842308</v>
       </c>
       <c r="H24" t="n">
-        <v>47.99958566710074</v>
+        <v>9.713854504248676</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.69451257337221</v>
+        <v>20.69451257337226</v>
       </c>
       <c r="C25" t="n">
-        <v>8.109353490062745</v>
+        <v>8.109353490062801</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>68.81681446249458</v>
+        <v>7.608961026935317</v>
       </c>
       <c r="H25" t="n">
         <v>151.1619851705912</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.369444003513223</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.19000555648653</v>
+        <v>43.19000555648658</v>
       </c>
       <c r="T25" t="n">
-        <v>63.49049600343957</v>
+        <v>145.7488299831149</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2511447716022</v>
+        <v>127.1136771630372</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>93.00017571526297</v>
       </c>
       <c r="W25" t="n">
-        <v>127.3855307280259</v>
+        <v>127.385530728026</v>
       </c>
       <c r="X25" t="n">
-        <v>66.57218778047206</v>
+        <v>66.57218778047212</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.4471857435297</v>
+        <v>59.44718574352976</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.1651078591981</v>
+        <v>303.165107859198</v>
       </c>
       <c r="C26" t="n">
         <v>285.704157966725</v>
       </c>
       <c r="D26" t="n">
-        <v>275.1143078164005</v>
+        <v>275.1143078164004</v>
       </c>
       <c r="E26" t="n">
-        <v>302.3616362679793</v>
+        <v>302.3616362679792</v>
       </c>
       <c r="F26" t="n">
         <v>327.3073119374289</v>
       </c>
       <c r="G26" t="n">
-        <v>332.9594913636452</v>
+        <v>332.9594913636451</v>
       </c>
       <c r="H26" t="n">
-        <v>231.4915937356467</v>
+        <v>231.4915937356466</v>
       </c>
       <c r="I26" t="n">
-        <v>23.94276850040937</v>
+        <v>23.94276850040934</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.22713566997376</v>
+        <v>66.22713566997371</v>
       </c>
       <c r="T26" t="n">
         <v>131.3816879599484</v>
@@ -2652,7 +2652,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I27" t="n">
-        <v>38.28573116285294</v>
+        <v>38.28573116285295</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.988926598084433</v>
+        <v>7.988926598084447</v>
       </c>
       <c r="S27" t="n">
         <v>144.1093279635753</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.2632463776548</v>
+        <v>100.2632463776547</v>
       </c>
       <c r="C28" t="n">
-        <v>87.67808729434532</v>
+        <v>87.67808729434527</v>
       </c>
       <c r="D28" t="n">
-        <v>69.04673921392984</v>
+        <v>69.0467392139298</v>
       </c>
       <c r="E28" t="n">
-        <v>66.86522884228665</v>
+        <v>66.86522884228661</v>
       </c>
       <c r="F28" t="n">
-        <v>65.85231421864873</v>
+        <v>65.85231421864869</v>
       </c>
       <c r="G28" t="n">
-        <v>87.17769483121783</v>
+        <v>87.17769483121778</v>
       </c>
       <c r="H28" t="n">
-        <v>71.59325136630865</v>
+        <v>71.59325136630861</v>
       </c>
       <c r="I28" t="n">
-        <v>38.45470665437195</v>
+        <v>38.45470665437191</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76513142968432</v>
+        <v>41.76513142968428</v>
       </c>
       <c r="S28" t="n">
         <v>122.7587393607691</v>
@@ -2779,7 +2779,7 @@
         <v>146.1409215847546</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.0159195478123</v>
+        <v>139.0159195478122</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>303.165107859198</v>
+        <v>303.1651078591981</v>
       </c>
       <c r="C29" t="n">
-        <v>285.704157966725</v>
+        <v>285.7041579667251</v>
       </c>
       <c r="D29" t="n">
-        <v>275.1143078164004</v>
+        <v>275.1143078164005</v>
       </c>
       <c r="E29" t="n">
-        <v>302.3616362679792</v>
+        <v>302.3616362679793</v>
       </c>
       <c r="F29" t="n">
         <v>327.3073119374289</v>
       </c>
       <c r="G29" t="n">
-        <v>332.9594913636451</v>
+        <v>332.9594913636452</v>
       </c>
       <c r="H29" t="n">
-        <v>231.4915937356466</v>
+        <v>231.4915937356467</v>
       </c>
       <c r="I29" t="n">
-        <v>23.94276850040934</v>
+        <v>23.94276850040939</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.22713566997373</v>
+        <v>66.22713566997376</v>
       </c>
       <c r="T29" t="n">
         <v>131.3816879599484</v>
@@ -2858,7 +2858,7 @@
         <v>290.1623668741865</v>
       </c>
       <c r="Y29" t="n">
-        <v>306.669204851771</v>
+        <v>306.6692048517711</v>
       </c>
     </row>
     <row r="30">
@@ -2950,25 +2950,25 @@
         <v>100.2632463776548</v>
       </c>
       <c r="C31" t="n">
-        <v>87.67808729434529</v>
+        <v>87.67808729434533</v>
       </c>
       <c r="D31" t="n">
-        <v>69.04673921392981</v>
+        <v>69.04673921392985</v>
       </c>
       <c r="E31" t="n">
-        <v>66.86522884228663</v>
+        <v>66.86522884228667</v>
       </c>
       <c r="F31" t="n">
-        <v>65.8523142186487</v>
+        <v>65.85231421864874</v>
       </c>
       <c r="G31" t="n">
-        <v>87.17769483121779</v>
+        <v>87.17769483121783</v>
       </c>
       <c r="H31" t="n">
-        <v>71.59325136630861</v>
+        <v>71.59325136630866</v>
       </c>
       <c r="I31" t="n">
-        <v>38.45470665437193</v>
+        <v>38.45470665437197</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76513142968429</v>
+        <v>41.76513142968433</v>
       </c>
       <c r="S31" t="n">
         <v>122.7587393607691</v>
       </c>
       <c r="T31" t="n">
-        <v>143.0592298077221</v>
+        <v>143.0592298077222</v>
       </c>
       <c r="U31" t="n">
-        <v>206.6824109673197</v>
+        <v>206.6824109673198</v>
       </c>
       <c r="V31" t="n">
         <v>172.5689095195455</v>
@@ -3013,10 +3013,10 @@
         <v>206.9542645323085</v>
       </c>
       <c r="X31" t="n">
-        <v>146.1409215847546</v>
+        <v>146.1409215847547</v>
       </c>
       <c r="Y31" t="n">
-        <v>139.0159195478122</v>
+        <v>139.0159195478123</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>303.165107859198</v>
       </c>
       <c r="C32" t="n">
-        <v>285.7041579667249</v>
+        <v>285.704157966725</v>
       </c>
       <c r="D32" t="n">
         <v>275.1143078164004</v>
@@ -3047,7 +3047,7 @@
         <v>231.4915937356466</v>
       </c>
       <c r="I32" t="n">
-        <v>23.94276850040934</v>
+        <v>23.94276850040936</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.22713566997373</v>
+        <v>66.22713566997376</v>
       </c>
       <c r="T32" t="n">
         <v>131.3816879599484</v>
@@ -3187,25 +3187,25 @@
         <v>100.2632463776548</v>
       </c>
       <c r="C34" t="n">
-        <v>87.67808729434529</v>
+        <v>87.6780872943453</v>
       </c>
       <c r="D34" t="n">
-        <v>69.04673921392981</v>
+        <v>69.04673921392983</v>
       </c>
       <c r="E34" t="n">
-        <v>66.86522884228663</v>
+        <v>66.86522884228664</v>
       </c>
       <c r="F34" t="n">
-        <v>65.8523142186487</v>
+        <v>65.85231421864871</v>
       </c>
       <c r="G34" t="n">
-        <v>87.17769483121779</v>
+        <v>87.17769483121781</v>
       </c>
       <c r="H34" t="n">
-        <v>71.59325136630861</v>
+        <v>71.59325136630864</v>
       </c>
       <c r="I34" t="n">
-        <v>38.45470665437193</v>
+        <v>38.45470665437194</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76513142968429</v>
+        <v>41.7651314296843</v>
       </c>
       <c r="S34" t="n">
         <v>122.7587393607691</v>
@@ -3266,10 +3266,10 @@
         <v>236.9379721892243</v>
       </c>
       <c r="C35" t="n">
-        <v>219.4770222967512</v>
+        <v>219.4770222967513</v>
       </c>
       <c r="D35" t="n">
-        <v>208.8871721464266</v>
+        <v>208.8871721464267</v>
       </c>
       <c r="E35" t="n">
         <v>236.1345005980055</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>65.15455228997459</v>
+        <v>65.15455228997462</v>
       </c>
       <c r="U35" t="n">
         <v>105.3278224458036</v>
@@ -3329,7 +3329,7 @@
         <v>203.4450992431567</v>
       </c>
       <c r="X35" t="n">
-        <v>223.9352312042127</v>
+        <v>223.9352312042128</v>
       </c>
       <c r="Y35" t="n">
         <v>240.4420691817973</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.03611070768099</v>
+        <v>34.03611070768102</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>21.45095162437156</v>
       </c>
       <c r="D37" t="n">
-        <v>2.819603543956049</v>
+        <v>2.819603543956077</v>
       </c>
       <c r="E37" t="n">
-        <v>0.638093172312864</v>
+        <v>0.6380931723128924</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>20.95055916124404</v>
+        <v>20.95055916124407</v>
       </c>
       <c r="H37" t="n">
-        <v>97.18473426322335</v>
+        <v>5.366115696334885</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>56.53160369079531</v>
+        <v>56.53160369079534</v>
       </c>
       <c r="T37" t="n">
-        <v>76.83209413774834</v>
+        <v>76.83209413774837</v>
       </c>
       <c r="U37" t="n">
-        <v>140.4552752973459</v>
+        <v>231.899072412909</v>
       </c>
       <c r="V37" t="n">
         <v>106.3417738495717</v>
@@ -3487,10 +3487,10 @@
         <v>140.7271288623347</v>
       </c>
       <c r="X37" t="n">
-        <v>79.91378591478085</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.78878387783848</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,10 +3503,10 @@
         <v>236.9379721892243</v>
       </c>
       <c r="C38" t="n">
-        <v>219.4770222967512</v>
+        <v>219.4770222967513</v>
       </c>
       <c r="D38" t="n">
-        <v>208.8871721464266</v>
+        <v>208.8871721464267</v>
       </c>
       <c r="E38" t="n">
         <v>236.1345005980055</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>65.15455228997459</v>
+        <v>65.15455228997462</v>
       </c>
       <c r="U38" t="n">
         <v>105.3278224458036</v>
@@ -3566,7 +3566,7 @@
         <v>203.4450992431567</v>
       </c>
       <c r="X38" t="n">
-        <v>223.9352312042127</v>
+        <v>223.9352312042128</v>
       </c>
       <c r="Y38" t="n">
         <v>240.4420691817973</v>
@@ -3600,7 +3600,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I39" t="n">
-        <v>38.28573116285296</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.988926598084475</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S39" t="n">
-        <v>144.1093279635754</v>
+        <v>144.1093279635753</v>
       </c>
       <c r="T39" t="n">
         <v>194.1811721786702</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.03611070768099</v>
+        <v>34.03611070768102</v>
       </c>
       <c r="C40" t="n">
-        <v>21.45095162437153</v>
+        <v>21.45095162437156</v>
       </c>
       <c r="D40" t="n">
-        <v>2.819603543956049</v>
+        <v>2.819603543956077</v>
       </c>
       <c r="E40" t="n">
-        <v>0.638093172312864</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>96.81324111907634</v>
       </c>
       <c r="G40" t="n">
-        <v>20.95055916124404</v>
+        <v>20.95055916124407</v>
       </c>
       <c r="H40" t="n">
-        <v>5.366115696334862</v>
+        <v>5.366115696334885</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>56.53160369079532</v>
+        <v>56.53160369079534</v>
       </c>
       <c r="T40" t="n">
-        <v>76.83209413774836</v>
+        <v>76.83209413774837</v>
       </c>
       <c r="U40" t="n">
-        <v>140.4552752973459</v>
+        <v>140.455275297346</v>
       </c>
       <c r="V40" t="n">
-        <v>106.3417738495717</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>140.7271288623347</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>79.91378591478087</v>
       </c>
       <c r="Y40" t="n">
-        <v>169.6020249969146</v>
+        <v>72.78878387783851</v>
       </c>
     </row>
     <row r="41">
@@ -3740,10 +3740,10 @@
         <v>236.9379721892243</v>
       </c>
       <c r="C41" t="n">
-        <v>219.4770222967512</v>
+        <v>219.4770222967513</v>
       </c>
       <c r="D41" t="n">
-        <v>208.8871721464266</v>
+        <v>208.8871721464267</v>
       </c>
       <c r="E41" t="n">
         <v>236.1345005980055</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>65.15455228997457</v>
+        <v>65.15455228997462</v>
       </c>
       <c r="U41" t="n">
         <v>105.3278224458036</v>
@@ -3803,7 +3803,7 @@
         <v>203.4450992431567</v>
       </c>
       <c r="X41" t="n">
-        <v>223.9352312042127</v>
+        <v>223.9352312042128</v>
       </c>
       <c r="Y41" t="n">
         <v>240.4420691817973</v>
@@ -3895,31 +3895,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.8493518267576</v>
+        <v>34.03611070768102</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>21.45095162437156</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>2.819603543956077</v>
       </c>
       <c r="E43" t="n">
-        <v>0.638093172312864</v>
+        <v>0.6380931723128924</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>20.95055916124404</v>
+        <v>20.95055916124407</v>
       </c>
       <c r="H43" t="n">
-        <v>5.366115696334857</v>
+        <v>5.366115696334885</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>118.0234404586545</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.369444003513223</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>56.53160369079531</v>
+        <v>56.53160369079534</v>
       </c>
       <c r="T43" t="n">
-        <v>76.83209413774834</v>
+        <v>76.83209413774837</v>
       </c>
       <c r="U43" t="n">
-        <v>140.4552752973459</v>
+        <v>140.455275297346</v>
       </c>
       <c r="V43" t="n">
         <v>106.3417738495717</v>
       </c>
       <c r="W43" t="n">
-        <v>140.7271288623347</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>79.91378591478085</v>
+        <v>79.91378591478087</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.78878387783848</v>
+        <v>192.0050100090034</v>
       </c>
     </row>
     <row r="44">
@@ -3977,10 +3977,10 @@
         <v>236.9379721892243</v>
       </c>
       <c r="C44" t="n">
-        <v>219.4770222967512</v>
+        <v>219.4770222967513</v>
       </c>
       <c r="D44" t="n">
-        <v>208.8871721464266</v>
+        <v>208.8871721464267</v>
       </c>
       <c r="E44" t="n">
         <v>236.1345005980055</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>65.15455228997459</v>
+        <v>65.1545522899746</v>
       </c>
       <c r="U44" t="n">
         <v>105.3278224458036</v>
@@ -4040,7 +4040,7 @@
         <v>203.4450992431567</v>
       </c>
       <c r="X44" t="n">
-        <v>223.9352312042127</v>
+        <v>223.9352312042128</v>
       </c>
       <c r="Y44" t="n">
         <v>240.4420691817973</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.03611070768099</v>
+        <v>34.03611070768102</v>
       </c>
       <c r="C46" t="n">
-        <v>21.45095162437153</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>2.819603543956049</v>
+        <v>2.819603543956077</v>
       </c>
       <c r="E46" t="n">
-        <v>0.638093172312864</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>20.95055916124404</v>
+        <v>20.95055916124407</v>
       </c>
       <c r="H46" t="n">
-        <v>102.5541782667365</v>
+        <v>5.366115696334885</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.53160369079531</v>
+        <v>56.53160369079534</v>
       </c>
       <c r="T46" t="n">
-        <v>76.83209413774834</v>
+        <v>173.6453352568246</v>
       </c>
       <c r="U46" t="n">
-        <v>140.4552752973459</v>
+        <v>140.455275297346</v>
       </c>
       <c r="V46" t="n">
         <v>106.3417738495717</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>140.7271288623347</v>
       </c>
       <c r="X46" t="n">
-        <v>79.91378591478085</v>
+        <v>79.91378591478087</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.78878387783848</v>
+        <v>72.78878387783851</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1173.038235184232</v>
+        <v>1215.061623033429</v>
       </c>
       <c r="C11" t="n">
-        <v>884.448176631985</v>
+        <v>1215.061623033429</v>
       </c>
       <c r="D11" t="n">
-        <v>606.5549364133988</v>
+        <v>937.1683828148424</v>
       </c>
       <c r="E11" t="n">
-        <v>606.5549364133988</v>
+        <v>937.1683828148424</v>
       </c>
       <c r="F11" t="n">
-        <v>606.5549364133988</v>
+        <v>606.554936413399</v>
       </c>
       <c r="G11" t="n">
-        <v>270.2322178642623</v>
+        <v>270.2322178642625</v>
       </c>
       <c r="H11" t="n">
-        <v>36.40232520199298</v>
+        <v>36.40232520199303</v>
       </c>
       <c r="I11" t="n">
-        <v>36.40232520199298</v>
+        <v>36.40232520199303</v>
       </c>
       <c r="J11" t="n">
-        <v>90.29531437608119</v>
+        <v>257.7009633964344</v>
       </c>
       <c r="K11" t="n">
-        <v>221.8054530777751</v>
+        <v>428.9847909455583</v>
       </c>
       <c r="L11" t="n">
-        <v>421.857170917103</v>
+        <v>629.0365087848863</v>
       </c>
       <c r="M11" t="n">
-        <v>676.1226902968215</v>
+        <v>1079.51528315955</v>
       </c>
       <c r="N11" t="n">
-        <v>1126.601464671485</v>
+        <v>1342.508892848082</v>
       </c>
       <c r="O11" t="n">
-        <v>1577.080239046148</v>
+        <v>1577.511039608751</v>
       </c>
       <c r="P11" t="n">
-        <v>1743.578934043204</v>
+        <v>1743.578934043206</v>
       </c>
       <c r="Q11" t="n">
-        <v>1820.116260099649</v>
+        <v>1820.116260099651</v>
       </c>
       <c r="R11" t="n">
-        <v>1820.116260099649</v>
+        <v>1820.116260099651</v>
       </c>
       <c r="S11" t="n">
-        <v>1753.220163463312</v>
+        <v>1753.220163463314</v>
       </c>
       <c r="T11" t="n">
-        <v>1753.220163463312</v>
+        <v>1620.511387746195</v>
       </c>
       <c r="U11" t="n">
-        <v>1733.495537727287</v>
+        <v>1524.828496621077</v>
       </c>
       <c r="V11" t="n">
-        <v>1482.80510877188</v>
+        <v>1524.828496621077</v>
       </c>
       <c r="W11" t="n">
-        <v>1482.80510877188</v>
+        <v>1524.828496621077</v>
       </c>
       <c r="X11" t="n">
-        <v>1482.80510877188</v>
+        <v>1524.828496621077</v>
       </c>
       <c r="Y11" t="n">
-        <v>1173.038235184232</v>
+        <v>1215.061623033429</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>660.562957692155</v>
+        <v>580.1904993039913</v>
       </c>
       <c r="C12" t="n">
-        <v>486.109928411028</v>
+        <v>405.7374700228643</v>
       </c>
       <c r="D12" t="n">
-        <v>417.547977137941</v>
+        <v>256.803060361613</v>
       </c>
       <c r="E12" t="n">
-        <v>338.6829805206497</v>
+        <v>177.9380637443216</v>
       </c>
       <c r="F12" t="n">
-        <v>272.5208809356988</v>
+        <v>111.7759641593706</v>
       </c>
       <c r="G12" t="n">
-        <v>135.2895453960718</v>
+        <v>54.91708700790773</v>
       </c>
       <c r="H12" t="n">
-        <v>36.40232520199298</v>
+        <v>36.40232520199303</v>
       </c>
       <c r="I12" t="n">
-        <v>36.40232520199298</v>
+        <v>36.40232520199303</v>
       </c>
       <c r="J12" t="n">
         <v>174.5128983801549</v>
       </c>
       <c r="K12" t="n">
-        <v>275.366124342433</v>
+        <v>275.3661243424331</v>
       </c>
       <c r="L12" t="n">
-        <v>457.2982738649874</v>
+        <v>457.2982738649877</v>
       </c>
       <c r="M12" t="n">
-        <v>907.7770482396506</v>
+        <v>756.1425104733275</v>
       </c>
       <c r="N12" t="n">
-        <v>1358.255822614314</v>
+        <v>1206.621284847991</v>
       </c>
       <c r="O12" t="n">
-        <v>1566.752668392713</v>
+        <v>1415.118130626391</v>
       </c>
       <c r="P12" t="n">
-        <v>1771.098679385387</v>
+        <v>1563.122164526899</v>
       </c>
       <c r="Q12" t="n">
-        <v>1820.116260099649</v>
+        <v>1820.116260099651</v>
       </c>
       <c r="R12" t="n">
-        <v>1820.116260099649</v>
+        <v>1820.116260099651</v>
       </c>
       <c r="S12" t="n">
-        <v>1754.923740746828</v>
+        <v>1754.92374074683</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.153600974719</v>
+        <v>1639.153600974721</v>
       </c>
       <c r="U12" t="n">
-        <v>1491.401091749125</v>
+        <v>1491.401091749127</v>
       </c>
       <c r="V12" t="n">
-        <v>1336.621441905547</v>
+        <v>1336.621441905548</v>
       </c>
       <c r="W12" t="n">
-        <v>1162.756543565509</v>
+        <v>1162.756543565511</v>
       </c>
       <c r="X12" t="n">
-        <v>956.1661350890128</v>
+        <v>956.1661350890131</v>
       </c>
       <c r="Y12" t="n">
-        <v>828.778294712223</v>
+        <v>748.4058363240592</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.9861862334154</v>
+        <v>527.9861862334167</v>
       </c>
       <c r="C13" t="n">
-        <v>439.4224616936727</v>
+        <v>439.4224616936739</v>
       </c>
       <c r="D13" t="n">
-        <v>369.6782806695012</v>
+        <v>369.6782806695022</v>
       </c>
       <c r="E13" t="n">
-        <v>302.1376454752723</v>
+        <v>302.1376454752732</v>
       </c>
       <c r="F13" t="n">
-        <v>235.6201563655264</v>
+        <v>235.620156365527</v>
       </c>
       <c r="G13" t="n">
-        <v>147.5618787582357</v>
+        <v>147.5618787582361</v>
       </c>
       <c r="H13" t="n">
-        <v>75.24546323671183</v>
+        <v>75.24546323671224</v>
       </c>
       <c r="I13" t="n">
-        <v>36.40232520199298</v>
+        <v>36.40232520199303</v>
       </c>
       <c r="J13" t="n">
-        <v>109.8596221047545</v>
+        <v>109.8596221047546</v>
       </c>
       <c r="K13" t="n">
-        <v>309.7340958180463</v>
+        <v>309.7340958180464</v>
       </c>
       <c r="L13" t="n">
         <v>599.0017100013555</v>
       </c>
       <c r="M13" t="n">
-        <v>910.1008877035639</v>
+        <v>910.100887703564</v>
       </c>
       <c r="N13" t="n">
         <v>1221.11048570127</v>
       </c>
       <c r="O13" t="n">
-        <v>1498.375280567425</v>
+        <v>1498.375280567426</v>
       </c>
       <c r="P13" t="n">
-        <v>1723.471626070057</v>
+        <v>1723.47162607006</v>
       </c>
       <c r="Q13" t="n">
-        <v>1820.116260099649</v>
+        <v>1820.116260099651</v>
       </c>
       <c r="R13" t="n">
-        <v>1777.929258655523</v>
+        <v>1777.929258655526</v>
       </c>
       <c r="S13" t="n">
-        <v>1653.930532028483</v>
+        <v>1653.930532028486</v>
       </c>
       <c r="T13" t="n">
-        <v>1509.426259495431</v>
+        <v>1509.426259495433</v>
       </c>
       <c r="U13" t="n">
-        <v>1300.656147407229</v>
+        <v>1300.656147407231</v>
       </c>
       <c r="V13" t="n">
-        <v>1126.344117589506</v>
+        <v>1126.344117589508</v>
       </c>
       <c r="W13" t="n">
-        <v>917.29940594071</v>
+        <v>917.2994059407116</v>
       </c>
       <c r="X13" t="n">
-        <v>769.6823134308569</v>
+        <v>769.6823134308584</v>
       </c>
       <c r="Y13" t="n">
-        <v>629.262192675491</v>
+        <v>629.2621926754923</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1516.285952281062</v>
+        <v>1276.038360843197</v>
       </c>
       <c r="C14" t="n">
-        <v>1227.695893728815</v>
+        <v>1252.893545920178</v>
       </c>
       <c r="D14" t="n">
-        <v>949.8026535102283</v>
+        <v>975.0003057015913</v>
       </c>
       <c r="E14" t="n">
-        <v>644.386859300148</v>
+        <v>975.0003057015913</v>
       </c>
       <c r="F14" t="n">
         <v>644.386859300148</v>
       </c>
       <c r="G14" t="n">
-        <v>308.0641407510116</v>
+        <v>308.0641407510115</v>
       </c>
       <c r="H14" t="n">
         <v>74.23424808874223</v>
       </c>
       <c r="I14" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="J14" t="n">
-        <v>103.9426226159524</v>
+        <v>271.3482716363055</v>
       </c>
       <c r="K14" t="n">
-        <v>235.4527613176464</v>
+        <v>723.7623687834528</v>
       </c>
       <c r="L14" t="n">
-        <v>786.1458771554991</v>
+        <v>923.8140866227809</v>
       </c>
       <c r="M14" t="n">
-        <v>1405.510090998567</v>
+        <v>1178.0796060025</v>
       </c>
       <c r="N14" t="n">
-        <v>2024.874304841635</v>
+        <v>1441.073215691032</v>
       </c>
       <c r="O14" t="n">
-        <v>2259.876451602304</v>
+        <v>1731.103889759232</v>
       </c>
       <c r="P14" t="n">
-        <v>2425.944346036759</v>
+        <v>2215.752505283455</v>
       </c>
       <c r="Q14" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093206</v>
       </c>
       <c r="R14" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093206</v>
       </c>
       <c r="S14" t="n">
-        <v>2435.585575456867</v>
+        <v>2435.585575456869</v>
       </c>
       <c r="T14" t="n">
-        <v>2435.585575456867</v>
+        <v>2302.87679973975</v>
       </c>
       <c r="U14" t="n">
-        <v>2262.297738976284</v>
+        <v>2129.588963259167</v>
       </c>
       <c r="V14" t="n">
-        <v>2011.607310020878</v>
+        <v>1878.89853430376</v>
       </c>
       <c r="W14" t="n">
-        <v>2011.607310020878</v>
+        <v>1878.89853430376</v>
       </c>
       <c r="X14" t="n">
-        <v>2011.607310020878</v>
+        <v>1585.805234430844</v>
       </c>
       <c r="Y14" t="n">
-        <v>1822.51333395702</v>
+        <v>1276.038360843197</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>851.3629048013408</v>
+        <v>915.3276410965187</v>
       </c>
       <c r="C15" t="n">
-        <v>676.9098755202139</v>
+        <v>740.8746118153917</v>
       </c>
       <c r="D15" t="n">
-        <v>527.9754658589626</v>
+        <v>591.9402021541405</v>
       </c>
       <c r="E15" t="n">
-        <v>368.7380108535071</v>
+        <v>432.702747148685</v>
       </c>
       <c r="F15" t="n">
-        <v>222.2034528803921</v>
+        <v>286.16818917557</v>
       </c>
       <c r="G15" t="n">
-        <v>84.97211734076504</v>
+        <v>148.9368536359429</v>
       </c>
       <c r="H15" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="I15" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="J15" t="n">
-        <v>188.160206620026</v>
+        <v>188.1602066200261</v>
       </c>
       <c r="K15" t="n">
-        <v>550.834017224757</v>
+        <v>550.8340172247571</v>
       </c>
       <c r="L15" t="n">
-        <v>732.7661667473116</v>
+        <v>1099.898108597736</v>
       </c>
       <c r="M15" t="n">
-        <v>964.4292722272844</v>
+        <v>1331.561214077709</v>
       </c>
       <c r="N15" t="n">
-        <v>1216.632455689975</v>
+        <v>1583.7643975404</v>
       </c>
       <c r="O15" t="n">
-        <v>1815.052997552337</v>
+        <v>1792.2612433188</v>
       </c>
       <c r="P15" t="n">
-        <v>2245.487576520452</v>
+        <v>2245.487576520454</v>
       </c>
       <c r="Q15" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093206</v>
       </c>
       <c r="R15" t="n">
-        <v>2494.412049266857</v>
+        <v>2494.412049266859</v>
       </c>
       <c r="S15" t="n">
-        <v>2348.847071525871</v>
+        <v>2348.847071525873</v>
       </c>
       <c r="T15" t="n">
-        <v>2152.704473365598</v>
+        <v>2216.669209660776</v>
       </c>
       <c r="U15" t="n">
-        <v>1924.57950575184</v>
+        <v>1988.544242047018</v>
       </c>
       <c r="V15" t="n">
-        <v>1689.427397520097</v>
+        <v>1753.392133815275</v>
       </c>
       <c r="W15" t="n">
-        <v>1435.190040791896</v>
+        <v>1499.154777087073</v>
       </c>
       <c r="X15" t="n">
-        <v>1227.338540586363</v>
+        <v>1291.303276881541</v>
       </c>
       <c r="Y15" t="n">
-        <v>1019.578241821409</v>
+        <v>1083.542978116587</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>541.6334944732871</v>
+        <v>541.6334944732873</v>
       </c>
       <c r="C16" t="n">
-        <v>453.0697699335444</v>
+        <v>453.0697699335446</v>
       </c>
       <c r="D16" t="n">
-        <v>383.3255889093729</v>
+        <v>383.3255889093731</v>
       </c>
       <c r="E16" t="n">
-        <v>315.784953715144</v>
+        <v>315.7849537151442</v>
       </c>
       <c r="F16" t="n">
-        <v>249.2674646053978</v>
+        <v>249.2674646053981</v>
       </c>
       <c r="G16" t="n">
-        <v>161.2091869981071</v>
+        <v>161.2091869981073</v>
       </c>
       <c r="H16" t="n">
-        <v>88.89277147658321</v>
+        <v>88.89277147658325</v>
       </c>
       <c r="I16" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="J16" t="n">
-        <v>123.5069303446257</v>
+        <v>123.5069303446256</v>
       </c>
       <c r="K16" t="n">
-        <v>323.3814040579176</v>
+        <v>323.3814040579175</v>
       </c>
       <c r="L16" t="n">
-        <v>612.6490182412268</v>
+        <v>612.6490182412267</v>
       </c>
       <c r="M16" t="n">
-        <v>923.7481959434353</v>
+        <v>923.7481959434351</v>
       </c>
       <c r="N16" t="n">
-        <v>1234.757793941142</v>
+        <v>1234.757793941141</v>
       </c>
       <c r="O16" t="n">
         <v>1512.022588807297</v>
@@ -5461,7 +5461,7 @@
         <v>1791.576566895395</v>
       </c>
       <c r="S16" t="n">
-        <v>1667.577840268355</v>
+        <v>1667.577840268356</v>
       </c>
       <c r="T16" t="n">
         <v>1523.073567735303</v>
@@ -5470,16 +5470,16 @@
         <v>1314.303455647101</v>
       </c>
       <c r="V16" t="n">
-        <v>1139.991425829378</v>
+        <v>1139.991425829379</v>
       </c>
       <c r="W16" t="n">
-        <v>930.9467141805817</v>
+        <v>930.946714180582</v>
       </c>
       <c r="X16" t="n">
-        <v>783.3296216707286</v>
+        <v>783.3296216707288</v>
       </c>
       <c r="Y16" t="n">
-        <v>642.9095009153626</v>
+        <v>642.9095009153629</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1340.480033706643</v>
+        <v>1326.918087638776</v>
       </c>
       <c r="C17" t="n">
-        <v>1132.262433542559</v>
+        <v>1118.700487474693</v>
       </c>
       <c r="D17" t="n">
-        <v>934.7416517121372</v>
+        <v>921.1797056442707</v>
       </c>
       <c r="E17" t="n">
-        <v>709.6983158902214</v>
+        <v>696.1363698223548</v>
       </c>
       <c r="F17" t="n">
-        <v>459.4573278769421</v>
+        <v>459.4573278769416</v>
       </c>
       <c r="G17" t="n">
-        <v>203.5070677159692</v>
+        <v>203.5070677159693</v>
       </c>
       <c r="H17" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="I17" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3482716363054</v>
+        <v>271.3482716363055</v>
       </c>
       <c r="K17" t="n">
-        <v>723.7623687834525</v>
+        <v>723.7623687834526</v>
       </c>
       <c r="L17" t="n">
-        <v>923.8140866227806</v>
+        <v>923.8140866227807</v>
       </c>
       <c r="M17" t="n">
-        <v>1178.079606002499</v>
+        <v>1543.178300465849</v>
       </c>
       <c r="N17" t="n">
-        <v>1496.101742998562</v>
+        <v>1806.171910154381</v>
       </c>
       <c r="O17" t="n">
-        <v>1731.10388975923</v>
+        <v>2041.17405691505</v>
       </c>
       <c r="P17" t="n">
-        <v>2215.752505283454</v>
+        <v>2215.752505283455</v>
       </c>
       <c r="Q17" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093206</v>
       </c>
       <c r="R17" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093206</v>
       </c>
       <c r="S17" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093206</v>
       </c>
       <c r="T17" t="n">
-        <v>2450.145354764249</v>
+        <v>2450.145354764251</v>
       </c>
       <c r="U17" t="n">
-        <v>2357.22997667183</v>
+        <v>2357.229976671832</v>
       </c>
       <c r="V17" t="n">
-        <v>2200.473952172456</v>
+        <v>2186.91200610459</v>
       </c>
       <c r="W17" t="n">
-        <v>2008.450213678671</v>
+        <v>1994.888267610804</v>
       </c>
       <c r="X17" t="n">
-        <v>1795.729372193919</v>
+        <v>1782.167426126053</v>
       </c>
       <c r="Y17" t="n">
-        <v>1566.334956994436</v>
+        <v>1552.773010926569</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>851.3629048013408</v>
+        <v>851.3629048013427</v>
       </c>
       <c r="C18" t="n">
-        <v>676.9098755202139</v>
+        <v>676.9098755202157</v>
       </c>
       <c r="D18" t="n">
-        <v>527.9754658589626</v>
+        <v>527.9754658589644</v>
       </c>
       <c r="E18" t="n">
-        <v>368.7380108535071</v>
+        <v>368.7380108535089</v>
       </c>
       <c r="F18" t="n">
-        <v>222.2034528803921</v>
+        <v>222.2034528803939</v>
       </c>
       <c r="G18" t="n">
-        <v>88.72208916191757</v>
+        <v>84.97211734076686</v>
       </c>
       <c r="H18" t="n">
-        <v>88.72208916191757</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="I18" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="J18" t="n">
         <v>188.160206620026</v>
       </c>
       <c r="K18" t="n">
-        <v>289.0134325823041</v>
+        <v>550.834017224757</v>
       </c>
       <c r="L18" t="n">
-        <v>838.0775239552833</v>
+        <v>1015.196711814921</v>
       </c>
       <c r="M18" t="n">
-        <v>1069.740629435256</v>
+        <v>1246.859817294894</v>
       </c>
       <c r="N18" t="n">
-        <v>1321.943812897947</v>
+        <v>1499.063000757584</v>
       </c>
       <c r="O18" t="n">
-        <v>1920.364354760308</v>
+        <v>2097.483542619946</v>
       </c>
       <c r="P18" t="n">
-        <v>2383.646529614354</v>
+        <v>2245.487576520454</v>
       </c>
       <c r="Q18" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093206</v>
       </c>
       <c r="R18" t="n">
-        <v>2494.412049266857</v>
+        <v>2494.412049266859</v>
       </c>
       <c r="S18" t="n">
-        <v>2348.847071525871</v>
+        <v>2348.847071525873</v>
       </c>
       <c r="T18" t="n">
-        <v>2152.704473365598</v>
+        <v>2152.7044733656</v>
       </c>
       <c r="U18" t="n">
-        <v>1924.57950575184</v>
+        <v>1924.579505751842</v>
       </c>
       <c r="V18" t="n">
-        <v>1689.427397520097</v>
+        <v>1689.427397520099</v>
       </c>
       <c r="W18" t="n">
-        <v>1435.190040791896</v>
+        <v>1435.190040791897</v>
       </c>
       <c r="X18" t="n">
-        <v>1227.338540586363</v>
+        <v>1227.338540586365</v>
       </c>
       <c r="Y18" t="n">
-        <v>1019.578241821409</v>
+        <v>1019.578241821411</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>65.92671881256915</v>
+        <v>373.561583086808</v>
       </c>
       <c r="C19" t="n">
-        <v>57.73545266099062</v>
+        <v>365.3703169352294</v>
       </c>
       <c r="D19" t="n">
-        <v>57.73545266099062</v>
+        <v>365.3703169352294</v>
       </c>
       <c r="E19" t="n">
-        <v>57.73545266099062</v>
+        <v>365.3703169352294</v>
       </c>
       <c r="F19" t="n">
-        <v>57.73545266099062</v>
+        <v>218.480369437319</v>
       </c>
       <c r="G19" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="H19" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="I19" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="J19" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="K19" t="n">
         <v>171.1510606889163</v>
       </c>
       <c r="L19" t="n">
-        <v>381.6456284059857</v>
+        <v>381.6456284059858</v>
       </c>
       <c r="M19" t="n">
         <v>613.9717596419546</v>
@@ -5698,25 +5698,25 @@
         <v>1208.894946173081</v>
       </c>
       <c r="S19" t="n">
-        <v>1004.523761157877</v>
+        <v>1097.643636941056</v>
       </c>
       <c r="T19" t="n">
-        <v>886.6218752982561</v>
+        <v>872.7669060198386</v>
       </c>
       <c r="U19" t="n">
-        <v>758.2242215982186</v>
+        <v>744.369252319801</v>
       </c>
       <c r="V19" t="n">
-        <v>503.5397333923318</v>
+        <v>650.4296808902425</v>
       </c>
       <c r="W19" t="n">
-        <v>374.8674801316995</v>
+        <v>521.7574276296102</v>
       </c>
       <c r="X19" t="n">
-        <v>307.6228460100106</v>
+        <v>454.5127935079212</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.5751836428088</v>
+        <v>394.4651311407194</v>
       </c>
     </row>
     <row r="20">
@@ -5732,70 +5732,70 @@
         <v>1132.262433542559</v>
       </c>
       <c r="D20" t="n">
-        <v>934.7416517121366</v>
+        <v>934.7416517121364</v>
       </c>
       <c r="E20" t="n">
-        <v>709.6983158902207</v>
+        <v>709.6983158902206</v>
       </c>
       <c r="F20" t="n">
-        <v>459.4573278769415</v>
+        <v>459.4573278769416</v>
       </c>
       <c r="G20" t="n">
-        <v>203.5070677159692</v>
+        <v>203.5070677159693</v>
       </c>
       <c r="H20" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="I20" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3482716363054</v>
+        <v>103.9426226159524</v>
       </c>
       <c r="K20" t="n">
-        <v>402.8584103379994</v>
+        <v>235.4527613176465</v>
       </c>
       <c r="L20" t="n">
-        <v>1016.394730582273</v>
+        <v>786.1458771555</v>
       </c>
       <c r="M20" t="n">
-        <v>1270.660249961992</v>
+        <v>1405.510090998569</v>
       </c>
       <c r="N20" t="n">
-        <v>1533.653859650524</v>
+        <v>2024.874304841637</v>
       </c>
       <c r="O20" t="n">
-        <v>2145.648185861311</v>
+        <v>2259.876451602306</v>
       </c>
       <c r="P20" t="n">
-        <v>2311.716080295766</v>
+        <v>2425.944346036761</v>
       </c>
       <c r="Q20" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093206</v>
       </c>
       <c r="R20" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093206</v>
       </c>
       <c r="S20" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093206</v>
       </c>
       <c r="T20" t="n">
-        <v>2463.707300832116</v>
+        <v>2450.14535476425</v>
       </c>
       <c r="U20" t="n">
-        <v>2370.791922739698</v>
+        <v>2370.791922739699</v>
       </c>
       <c r="V20" t="n">
-        <v>2200.473952172455</v>
+        <v>2200.473952172456</v>
       </c>
       <c r="W20" t="n">
         <v>2008.45021367867</v>
       </c>
       <c r="X20" t="n">
-        <v>1795.729372193918</v>
+        <v>1795.729372193919</v>
       </c>
       <c r="Y20" t="n">
-        <v>1566.334956994435</v>
+        <v>1566.334956994436</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>851.3629048013408</v>
+        <v>954.0000968165722</v>
       </c>
       <c r="C21" t="n">
-        <v>676.9098755202139</v>
+        <v>779.5470675354452</v>
       </c>
       <c r="D21" t="n">
-        <v>591.9402021541405</v>
+        <v>630.6126578741939</v>
       </c>
       <c r="E21" t="n">
-        <v>432.7027471486849</v>
+        <v>471.3752028687385</v>
       </c>
       <c r="F21" t="n">
-        <v>286.1681891755699</v>
+        <v>324.8406448956234</v>
       </c>
       <c r="G21" t="n">
-        <v>148.9368536359429</v>
+        <v>187.6093093559964</v>
       </c>
       <c r="H21" t="n">
-        <v>50.04963344186409</v>
+        <v>88.72208916191761</v>
       </c>
       <c r="I21" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="J21" t="n">
         <v>188.160206620026</v>
@@ -5847,34 +5847,34 @@
         <v>1792.261243318799</v>
       </c>
       <c r="P21" t="n">
-        <v>2255.543418172844</v>
+        <v>2245.487576520454</v>
       </c>
       <c r="Q21" t="n">
-        <v>2502.481672093204</v>
+        <v>2502.481672093206</v>
       </c>
       <c r="R21" t="n">
-        <v>2494.412049266857</v>
+        <v>2494.412049266859</v>
       </c>
       <c r="S21" t="n">
-        <v>2348.847071525871</v>
+        <v>2451.484263541102</v>
       </c>
       <c r="T21" t="n">
-        <v>2152.704473365598</v>
+        <v>2255.341665380829</v>
       </c>
       <c r="U21" t="n">
-        <v>1924.57950575184</v>
+        <v>2027.216697767071</v>
       </c>
       <c r="V21" t="n">
-        <v>1689.427397520097</v>
+        <v>1792.064589535328</v>
       </c>
       <c r="W21" t="n">
-        <v>1435.190040791896</v>
+        <v>1537.827232807127</v>
       </c>
       <c r="X21" t="n">
-        <v>1227.338540586363</v>
+        <v>1329.975732601594</v>
       </c>
       <c r="Y21" t="n">
-        <v>1019.578241821409</v>
+        <v>1122.21543383664</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>360.7297598928726</v>
+        <v>280.44170730363</v>
       </c>
       <c r="C22" t="n">
-        <v>352.5384937412941</v>
+        <v>272.2504411520514</v>
       </c>
       <c r="D22" t="n">
-        <v>352.5384937412941</v>
+        <v>272.2504411520514</v>
       </c>
       <c r="E22" t="n">
-        <v>204.625400158901</v>
+        <v>272.2504411520514</v>
       </c>
       <c r="F22" t="n">
-        <v>57.73545266099062</v>
+        <v>272.2504411520514</v>
       </c>
       <c r="G22" t="n">
-        <v>50.04963344186409</v>
+        <v>264.5646219329248</v>
       </c>
       <c r="H22" t="n">
-        <v>50.04963344186409</v>
+        <v>111.8757480232368</v>
       </c>
       <c r="I22" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="J22" t="n">
-        <v>50.04963344186409</v>
+        <v>50.04963344186412</v>
       </c>
       <c r="K22" t="n">
         <v>171.1510606889163</v>
       </c>
       <c r="L22" t="n">
-        <v>381.6456284059857</v>
+        <v>381.6456284059858</v>
       </c>
       <c r="M22" t="n">
         <v>613.9717596419546</v>
@@ -5935,25 +5935,25 @@
         <v>1208.894946173081</v>
       </c>
       <c r="S22" t="n">
-        <v>1165.268677934206</v>
+        <v>1004.523761157877</v>
       </c>
       <c r="T22" t="n">
-        <v>1101.136863789317</v>
+        <v>779.6470302366606</v>
       </c>
       <c r="U22" t="n">
-        <v>972.7392100892797</v>
+        <v>651.249376536623</v>
       </c>
       <c r="V22" t="n">
-        <v>798.3427744726353</v>
+        <v>557.3098051070644</v>
       </c>
       <c r="W22" t="n">
-        <v>669.670521212003</v>
+        <v>428.6375518464322</v>
       </c>
       <c r="X22" t="n">
-        <v>441.6809703139857</v>
+        <v>361.3929177247431</v>
       </c>
       <c r="Y22" t="n">
-        <v>381.6333079467839</v>
+        <v>301.3452553575414</v>
       </c>
     </row>
     <row r="23">
@@ -5978,46 +5978,46 @@
         <v>459.7341022864894</v>
       </c>
       <c r="G23" t="n">
-        <v>203.7838421255175</v>
+        <v>203.7838421255176</v>
       </c>
       <c r="H23" t="n">
-        <v>50.32640785141241</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="I23" t="n">
-        <v>50.32640785141241</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="J23" t="n">
-        <v>104.2193970255007</v>
+        <v>271.6250460458538</v>
       </c>
       <c r="K23" t="n">
-        <v>556.6334941726479</v>
+        <v>724.0391431930009</v>
       </c>
       <c r="L23" t="n">
-        <v>1170.169814416922</v>
+        <v>924.0908610323289</v>
       </c>
       <c r="M23" t="n">
-        <v>1775.719415630519</v>
+        <v>1178.356380412048</v>
       </c>
       <c r="N23" t="n">
-        <v>2038.713025319051</v>
+        <v>1441.349990100579</v>
       </c>
       <c r="O23" t="n">
-        <v>2273.71517207972</v>
+        <v>1744.942610236647</v>
       </c>
       <c r="P23" t="n">
-        <v>2439.783066514175</v>
+        <v>2229.59122576087</v>
       </c>
       <c r="Q23" t="n">
-        <v>2516.32039257062</v>
+        <v>2516.320392570621</v>
       </c>
       <c r="R23" t="n">
-        <v>2516.32039257062</v>
+        <v>2516.320392570621</v>
       </c>
       <c r="S23" t="n">
-        <v>2516.32039257062</v>
+        <v>2516.320392570621</v>
       </c>
       <c r="T23" t="n">
-        <v>2463.984075241665</v>
+        <v>2463.984075241666</v>
       </c>
       <c r="U23" t="n">
         <v>2371.068697149246</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>865.2016252787566</v>
+        <v>865.2016252787575</v>
       </c>
       <c r="C24" t="n">
-        <v>690.7485959976296</v>
+        <v>690.7485959976306</v>
       </c>
       <c r="D24" t="n">
-        <v>541.8141863363784</v>
+        <v>541.8141863363793</v>
       </c>
       <c r="E24" t="n">
-        <v>382.5767313309229</v>
+        <v>382.5767313309238</v>
       </c>
       <c r="F24" t="n">
-        <v>236.0421733578079</v>
+        <v>236.0421733578088</v>
       </c>
       <c r="G24" t="n">
-        <v>98.81083781818083</v>
+        <v>98.81083781818174</v>
       </c>
       <c r="H24" t="n">
-        <v>50.32640785141241</v>
+        <v>88.9988635714659</v>
       </c>
       <c r="I24" t="n">
-        <v>50.32640785141241</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="J24" t="n">
         <v>188.4369810295743</v>
       </c>
       <c r="K24" t="n">
-        <v>551.1107916343052</v>
+        <v>551.1107916343053</v>
       </c>
       <c r="L24" t="n">
-        <v>1100.174883007284</v>
+        <v>1100.174883007285</v>
       </c>
       <c r="M24" t="n">
         <v>1331.837988487257</v>
@@ -6081,37 +6081,37 @@
         <v>1584.041171949948</v>
       </c>
       <c r="O24" t="n">
-        <v>1796.044122143822</v>
+        <v>1796.044122143823</v>
       </c>
       <c r="P24" t="n">
-        <v>2259.326296997868</v>
+        <v>2259.326296997869</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.32039257062</v>
+        <v>2516.320392570621</v>
       </c>
       <c r="R24" t="n">
-        <v>2508.250769744272</v>
+        <v>2508.250769744273</v>
       </c>
       <c r="S24" t="n">
-        <v>2362.685792003287</v>
+        <v>2362.685792003288</v>
       </c>
       <c r="T24" t="n">
-        <v>2166.543193843014</v>
+        <v>2166.543193843015</v>
       </c>
       <c r="U24" t="n">
-        <v>1938.418226229256</v>
+        <v>1938.418226229257</v>
       </c>
       <c r="V24" t="n">
-        <v>1703.266117997513</v>
+        <v>1703.266117997514</v>
       </c>
       <c r="W24" t="n">
-        <v>1449.028761269311</v>
+        <v>1449.028761269312</v>
       </c>
       <c r="X24" t="n">
         <v>1241.177261063779</v>
       </c>
       <c r="Y24" t="n">
-        <v>1033.416962298825</v>
+        <v>1033.416962298826</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>280.7184817131786</v>
+        <v>519.1190890237386</v>
       </c>
       <c r="C25" t="n">
-        <v>272.5272155616</v>
+        <v>510.92782287216</v>
       </c>
       <c r="D25" t="n">
-        <v>272.5272155616</v>
+        <v>510.92782287216</v>
       </c>
       <c r="E25" t="n">
-        <v>272.5272155616</v>
+        <v>363.0147292897669</v>
       </c>
       <c r="F25" t="n">
-        <v>272.5272155616</v>
+        <v>216.1247817918566</v>
       </c>
       <c r="G25" t="n">
-        <v>203.0152817611005</v>
+        <v>208.43896257273</v>
       </c>
       <c r="H25" t="n">
-        <v>50.32640785141241</v>
+        <v>55.75008866304194</v>
       </c>
       <c r="I25" t="n">
-        <v>50.32640785141241</v>
+        <v>55.75008866304194</v>
       </c>
       <c r="J25" t="n">
-        <v>50.32640785141241</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="K25" t="n">
         <v>171.4278350984646</v>
       </c>
       <c r="L25" t="n">
-        <v>381.922402815534</v>
+        <v>381.9224028155341</v>
       </c>
       <c r="M25" t="n">
         <v>614.2485340515029</v>
@@ -6175,22 +6175,22 @@
         <v>1165.545452343754</v>
       </c>
       <c r="T25" t="n">
-        <v>1101.413638198866</v>
+        <v>1018.324411956769</v>
       </c>
       <c r="U25" t="n">
-        <v>812.2710677224997</v>
+        <v>889.9267582567317</v>
       </c>
       <c r="V25" t="n">
-        <v>557.5865795166128</v>
+        <v>795.9871868271731</v>
       </c>
       <c r="W25" t="n">
-        <v>428.9143262559805</v>
+        <v>667.3149335665408</v>
       </c>
       <c r="X25" t="n">
-        <v>361.6696921342916</v>
+        <v>600.0702994448518</v>
       </c>
       <c r="Y25" t="n">
-        <v>301.6220297670899</v>
+        <v>540.02263707765</v>
       </c>
     </row>
     <row r="26">
@@ -6206,67 +6206,67 @@
         <v>1581.76820985265</v>
       </c>
       <c r="D26" t="n">
-        <v>1303.874969634064</v>
+        <v>1303.874969634063</v>
       </c>
       <c r="E26" t="n">
-        <v>998.4591754239841</v>
+        <v>998.459175423983</v>
       </c>
       <c r="F26" t="n">
-        <v>667.8457290225411</v>
+        <v>667.8457290225397</v>
       </c>
       <c r="G26" t="n">
-        <v>331.5230104734046</v>
+        <v>331.5230104734032</v>
       </c>
       <c r="H26" t="n">
-        <v>97.69311781113447</v>
+        <v>97.69311781113441</v>
       </c>
       <c r="I26" t="n">
-        <v>73.50850316425631</v>
+        <v>73.50850316425628</v>
       </c>
       <c r="J26" t="n">
-        <v>294.8071413586977</v>
+        <v>294.8071413586975</v>
       </c>
       <c r="K26" t="n">
-        <v>747.2212385058449</v>
+        <v>747.2212385058447</v>
       </c>
       <c r="L26" t="n">
         <v>1360.757558750119</v>
       </c>
       <c r="M26" t="n">
-        <v>1615.023078129838</v>
+        <v>2060.041476287741</v>
       </c>
       <c r="N26" t="n">
-        <v>2267.881859811828</v>
+        <v>2756.008541144137</v>
       </c>
       <c r="O26" t="n">
-        <v>2879.876186022614</v>
+        <v>3368.002867354924</v>
       </c>
       <c r="P26" t="n">
-        <v>3364.524801546837</v>
+        <v>3534.07076178938</v>
       </c>
       <c r="Q26" t="n">
-        <v>3651.253968356588</v>
+        <v>3675.425158212814</v>
       </c>
       <c r="R26" t="n">
-        <v>3675.425158212815</v>
+        <v>3675.425158212814</v>
       </c>
       <c r="S26" t="n">
-        <v>3608.529061576478</v>
+        <v>3608.529061576477</v>
       </c>
       <c r="T26" t="n">
-        <v>3475.820285859359</v>
+        <v>3475.820285859357</v>
       </c>
       <c r="U26" t="n">
-        <v>3302.532449378776</v>
+        <v>3302.532449378774</v>
       </c>
       <c r="V26" t="n">
-        <v>3051.842020423369</v>
+        <v>3051.842020423368</v>
       </c>
       <c r="W26" t="n">
-        <v>2779.445823541419</v>
+        <v>2779.445823541418</v>
       </c>
       <c r="X26" t="n">
-        <v>2486.352523668503</v>
+        <v>2486.352523668502</v>
       </c>
       <c r="Y26" t="n">
         <v>2176.585650080855</v>
@@ -6300,7 +6300,7 @@
         <v>112.1809588843098</v>
       </c>
       <c r="I27" t="n">
-        <v>73.50850316425631</v>
+        <v>73.50850316425628</v>
       </c>
       <c r="J27" t="n">
         <v>211.6190763424182</v>
@@ -6315,7 +6315,7 @@
         <v>1355.020083800101</v>
       </c>
       <c r="N27" t="n">
-        <v>1607.223267262792</v>
+        <v>1699.804617625631</v>
       </c>
       <c r="O27" t="n">
         <v>1908.30146340403</v>
@@ -6364,34 +6364,34 @@
         <v>476.5286396559368</v>
       </c>
       <c r="D28" t="n">
-        <v>406.7844586317652</v>
+        <v>406.7844586317653</v>
       </c>
       <c r="E28" t="n">
-        <v>339.2438234375363</v>
+        <v>339.2438234375364</v>
       </c>
       <c r="F28" t="n">
-        <v>272.7263343277901</v>
+        <v>272.7263343277903</v>
       </c>
       <c r="G28" t="n">
-        <v>184.6680567204994</v>
+        <v>184.6680567204996</v>
       </c>
       <c r="H28" t="n">
-        <v>112.3516411989755</v>
+        <v>112.3516411989754</v>
       </c>
       <c r="I28" t="n">
-        <v>73.50850316425631</v>
+        <v>73.50850316425628</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9658000670177</v>
+        <v>146.9658000670181</v>
       </c>
       <c r="K28" t="n">
-        <v>346.8402737803096</v>
+        <v>346.8402737803099</v>
       </c>
       <c r="L28" t="n">
-        <v>636.1078879636189</v>
+        <v>636.1078879636191</v>
       </c>
       <c r="M28" t="n">
-        <v>947.2070656658275</v>
+        <v>947.2070656658277</v>
       </c>
       <c r="N28" t="n">
         <v>1258.216663663534</v>
@@ -6400,7 +6400,7 @@
         <v>1535.481458529689</v>
       </c>
       <c r="P28" t="n">
-        <v>1760.577804032321</v>
+        <v>1760.577804032322</v>
       </c>
       <c r="Q28" t="n">
         <v>1857.222438061913</v>
@@ -6415,16 +6415,16 @@
         <v>1546.532437457695</v>
       </c>
       <c r="U28" t="n">
-        <v>1337.762325369493</v>
+        <v>1337.762325369494</v>
       </c>
       <c r="V28" t="n">
         <v>1163.450295551771</v>
       </c>
       <c r="W28" t="n">
-        <v>954.4055839029742</v>
+        <v>954.4055839029743</v>
       </c>
       <c r="X28" t="n">
-        <v>806.788491393121</v>
+        <v>806.7884913931211</v>
       </c>
       <c r="Y28" t="n">
         <v>666.3683706377551</v>
@@ -6440,25 +6440,25 @@
         <v>1870.358268404897</v>
       </c>
       <c r="C29" t="n">
-        <v>1581.76820985265</v>
+        <v>1581.768209852649</v>
       </c>
       <c r="D29" t="n">
-        <v>1303.874969634064</v>
+        <v>1303.874969634063</v>
       </c>
       <c r="E29" t="n">
-        <v>998.4591754239837</v>
+        <v>998.4591754239827</v>
       </c>
       <c r="F29" t="n">
-        <v>667.8457290225404</v>
+        <v>667.8457290225399</v>
       </c>
       <c r="G29" t="n">
-        <v>331.5230104734037</v>
+        <v>331.5230104734034</v>
       </c>
       <c r="H29" t="n">
-        <v>97.69311781113441</v>
+        <v>97.69311781113447</v>
       </c>
       <c r="I29" t="n">
-        <v>73.50850316425628</v>
+        <v>73.5085031642563</v>
       </c>
       <c r="J29" t="n">
         <v>127.4014923383446</v>
@@ -6470,31 +6470,31 @@
         <v>1193.351909729766</v>
       </c>
       <c r="M29" t="n">
-        <v>1892.635827267389</v>
+        <v>1806.277825564964</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.602892123785</v>
+        <v>2502.24489042136</v>
       </c>
       <c r="O29" t="n">
-        <v>3200.597218334571</v>
+        <v>3114.239216632147</v>
       </c>
       <c r="P29" t="n">
-        <v>3598.887832156369</v>
+        <v>3598.88783215637</v>
       </c>
       <c r="Q29" t="n">
-        <v>3675.425158212814</v>
+        <v>3675.425158212815</v>
       </c>
       <c r="R29" t="n">
-        <v>3675.425158212814</v>
+        <v>3675.425158212815</v>
       </c>
       <c r="S29" t="n">
         <v>3608.529061576477</v>
       </c>
       <c r="T29" t="n">
-        <v>3475.820285859358</v>
+        <v>3475.820285859357</v>
       </c>
       <c r="U29" t="n">
-        <v>3302.532449378774</v>
+        <v>3302.532449378775</v>
       </c>
       <c r="V29" t="n">
         <v>3051.842020423368</v>
@@ -6503,7 +6503,7 @@
         <v>2779.445823541418</v>
       </c>
       <c r="X29" t="n">
-        <v>2486.352523668503</v>
+        <v>2486.352523668502</v>
       </c>
       <c r="Y29" t="n">
         <v>2176.585650080855</v>
@@ -6537,7 +6537,7 @@
         <v>112.1809588843098</v>
       </c>
       <c r="I30" t="n">
-        <v>73.50850316425628</v>
+        <v>73.5085031642563</v>
       </c>
       <c r="J30" t="n">
         <v>211.6190763424182</v>
@@ -6546,16 +6546,16 @@
         <v>574.2928869471491</v>
       </c>
       <c r="L30" t="n">
-        <v>1123.356978320128</v>
+        <v>756.2250364697037</v>
       </c>
       <c r="M30" t="n">
-        <v>1355.020083800101</v>
+        <v>1448.936155062177</v>
       </c>
       <c r="N30" t="n">
-        <v>1607.223267262792</v>
+        <v>1701.139338524867</v>
       </c>
       <c r="O30" t="n">
-        <v>1908.30146340403</v>
+        <v>1909.636184303266</v>
       </c>
       <c r="P30" t="n">
         <v>2371.583638258076</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.0923641956795</v>
+        <v>565.0923641956792</v>
       </c>
       <c r="C31" t="n">
-        <v>476.5286396559368</v>
+        <v>476.5286396559365</v>
       </c>
       <c r="D31" t="n">
-        <v>406.7844586317652</v>
+        <v>406.7844586317649</v>
       </c>
       <c r="E31" t="n">
-        <v>339.2438234375363</v>
+        <v>339.243823437536</v>
       </c>
       <c r="F31" t="n">
-        <v>272.7263343277899</v>
+        <v>272.7263343277897</v>
       </c>
       <c r="G31" t="n">
-        <v>184.6680567204992</v>
+        <v>184.668056720499</v>
       </c>
       <c r="H31" t="n">
-        <v>112.3516411989753</v>
+        <v>112.3516411989751</v>
       </c>
       <c r="I31" t="n">
-        <v>73.50850316425628</v>
+        <v>73.5085031642563</v>
       </c>
       <c r="J31" t="n">
         <v>146.9658000670179</v>
@@ -6625,7 +6625,7 @@
         <v>346.8402737803098</v>
       </c>
       <c r="L31" t="n">
-        <v>636.107887963619</v>
+        <v>636.1078879636185</v>
       </c>
       <c r="M31" t="n">
         <v>947.207065665827</v>
@@ -6661,10 +6661,10 @@
         <v>954.4055839029741</v>
       </c>
       <c r="X31" t="n">
-        <v>806.7884913931209</v>
+        <v>806.7884913931207</v>
       </c>
       <c r="Y31" t="n">
-        <v>666.368370637755</v>
+        <v>666.3683706377548</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1870.358268404897</v>
+        <v>1870.358268404899</v>
       </c>
       <c r="C32" t="n">
-        <v>1581.76820985265</v>
+        <v>1581.768209852651</v>
       </c>
       <c r="D32" t="n">
-        <v>1303.874969634064</v>
+        <v>1303.874969634065</v>
       </c>
       <c r="E32" t="n">
-        <v>998.4591754239837</v>
+        <v>998.4591754239844</v>
       </c>
       <c r="F32" t="n">
-        <v>667.8457290225402</v>
+        <v>667.845729022541</v>
       </c>
       <c r="G32" t="n">
-        <v>331.5230104734038</v>
+        <v>331.5230104734046</v>
       </c>
       <c r="H32" t="n">
-        <v>97.69311781113441</v>
+        <v>97.69311781113446</v>
       </c>
       <c r="I32" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425631</v>
       </c>
       <c r="J32" t="n">
-        <v>294.8071413586976</v>
+        <v>127.4014923383446</v>
       </c>
       <c r="K32" t="n">
-        <v>747.2212385058448</v>
+        <v>579.8155894854917</v>
       </c>
       <c r="L32" t="n">
-        <v>1360.757558750119</v>
+        <v>1193.351909729766</v>
       </c>
       <c r="M32" t="n">
-        <v>2060.041476287742</v>
+        <v>1892.635827267389</v>
       </c>
       <c r="N32" t="n">
-        <v>2756.008541144138</v>
+        <v>2588.602892123785</v>
       </c>
       <c r="O32" t="n">
-        <v>3368.002867354924</v>
+        <v>3114.239216632147</v>
       </c>
       <c r="P32" t="n">
-        <v>3574.716642300142</v>
+        <v>3598.88783215637</v>
       </c>
       <c r="Q32" t="n">
-        <v>3651.253968356587</v>
+        <v>3675.425158212815</v>
       </c>
       <c r="R32" t="n">
-        <v>3675.425158212814</v>
+        <v>3675.425158212815</v>
       </c>
       <c r="S32" t="n">
-        <v>3608.529061576477</v>
+        <v>3608.529061576478</v>
       </c>
       <c r="T32" t="n">
-        <v>3475.820285859358</v>
+        <v>3475.820285859359</v>
       </c>
       <c r="U32" t="n">
-        <v>3302.532449378774</v>
+        <v>3302.532449378776</v>
       </c>
       <c r="V32" t="n">
-        <v>3051.842020423368</v>
+        <v>3051.842020423369</v>
       </c>
       <c r="W32" t="n">
-        <v>2779.445823541418</v>
+        <v>2779.445823541419</v>
       </c>
       <c r="X32" t="n">
-        <v>2486.352523668502</v>
+        <v>2486.352523668504</v>
       </c>
       <c r="Y32" t="n">
-        <v>2176.585650080855</v>
+        <v>2176.585650080856</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>112.1809588843098</v>
       </c>
       <c r="I33" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425631</v>
       </c>
       <c r="J33" t="n">
         <v>211.6190763424182</v>
@@ -6792,7 +6792,7 @@
         <v>1607.223267262792</v>
       </c>
       <c r="O33" t="n">
-        <v>1908.30146340403</v>
+        <v>2205.643809125153</v>
       </c>
       <c r="P33" t="n">
         <v>2371.583638258076</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.0923641956792</v>
+        <v>565.0923641956797</v>
       </c>
       <c r="C34" t="n">
-        <v>476.5286396559366</v>
+        <v>476.5286396559369</v>
       </c>
       <c r="D34" t="n">
-        <v>406.784458631765</v>
+        <v>406.7844586317653</v>
       </c>
       <c r="E34" t="n">
-        <v>339.2438234375361</v>
+        <v>339.2438234375364</v>
       </c>
       <c r="F34" t="n">
-        <v>272.7263343277899</v>
+        <v>272.7263343277903</v>
       </c>
       <c r="G34" t="n">
-        <v>184.6680567204992</v>
+        <v>184.6680567204995</v>
       </c>
       <c r="H34" t="n">
         <v>112.3516411989754</v>
       </c>
       <c r="I34" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425631</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9658000670179</v>
+        <v>146.9658000670176</v>
       </c>
       <c r="K34" t="n">
-        <v>346.8402737803099</v>
+        <v>346.8402737803095</v>
       </c>
       <c r="L34" t="n">
-        <v>636.1078879636189</v>
+        <v>636.1078879636187</v>
       </c>
       <c r="M34" t="n">
-        <v>947.2070656658275</v>
+        <v>947.2070656658273</v>
       </c>
       <c r="N34" t="n">
         <v>1258.216663663534</v>
@@ -6874,13 +6874,13 @@
         <v>1535.481458529689</v>
       </c>
       <c r="P34" t="n">
-        <v>1760.577804032322</v>
+        <v>1760.577804032321</v>
       </c>
       <c r="Q34" t="n">
         <v>1857.222438061913</v>
       </c>
       <c r="R34" t="n">
-        <v>1815.035436617788</v>
+        <v>1815.035436617787</v>
       </c>
       <c r="S34" t="n">
         <v>1691.036709990748</v>
@@ -6892,16 +6892,16 @@
         <v>1337.762325369493</v>
       </c>
       <c r="V34" t="n">
-        <v>1163.45029555177</v>
+        <v>1163.450295551771</v>
       </c>
       <c r="W34" t="n">
-        <v>954.4055839029738</v>
+        <v>954.4055839029741</v>
       </c>
       <c r="X34" t="n">
-        <v>806.7884913931207</v>
+        <v>806.7884913931211</v>
       </c>
       <c r="Y34" t="n">
-        <v>666.3683706377548</v>
+        <v>666.3683706377552</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1425.190339908248</v>
+        <v>1425.19033990825</v>
       </c>
       <c r="C35" t="n">
-        <v>1203.496377992338</v>
+        <v>1203.49637799234</v>
       </c>
       <c r="D35" t="n">
-        <v>992.4992344100892</v>
+        <v>992.4992344100907</v>
       </c>
       <c r="E35" t="n">
-        <v>753.9795368363464</v>
+        <v>753.9795368363477</v>
       </c>
       <c r="F35" t="n">
-        <v>490.2621870712401</v>
+        <v>490.2621870712414</v>
       </c>
       <c r="G35" t="n">
         <v>220.8355651584416</v>
       </c>
       <c r="H35" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="I35" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="J35" t="n">
-        <v>275.2004073269507</v>
+        <v>141.9914040259828</v>
       </c>
       <c r="K35" t="n">
-        <v>406.7105460286448</v>
+        <v>594.40550117313</v>
       </c>
       <c r="L35" t="n">
-        <v>606.7622638679728</v>
+        <v>794.457219012458</v>
       </c>
       <c r="M35" t="n">
-        <v>861.0277832476916</v>
+        <v>1048.722738392177</v>
       </c>
       <c r="N35" t="n">
-        <v>1528.062176262495</v>
+        <v>1311.716348080709</v>
       </c>
       <c r="O35" t="n">
-        <v>2140.056502473281</v>
+        <v>1923.710674291495</v>
       </c>
       <c r="P35" t="n">
-        <v>2384.188099959491</v>
+        <v>2408.359289815719</v>
       </c>
       <c r="Q35" t="n">
-        <v>2670.917266769242</v>
+        <v>2695.088456625469</v>
       </c>
       <c r="R35" t="n">
         <v>2695.088456625469</v>
@@ -6965,22 +6965,22 @@
         <v>2695.088456625469</v>
       </c>
       <c r="T35" t="n">
-        <v>2629.275777544686</v>
+        <v>2629.275777544688</v>
       </c>
       <c r="U35" t="n">
-        <v>2522.88403770044</v>
+        <v>2522.884037700442</v>
       </c>
       <c r="V35" t="n">
-        <v>2339.089705381371</v>
+        <v>2339.089705381372</v>
       </c>
       <c r="W35" t="n">
-        <v>2133.589605135758</v>
+        <v>2133.589605135759</v>
       </c>
       <c r="X35" t="n">
-        <v>1907.392401899179</v>
+        <v>1907.392401899181</v>
       </c>
       <c r="Y35" t="n">
-        <v>1664.521624947869</v>
+        <v>1664.521624947871</v>
       </c>
     </row>
     <row r="36">
@@ -7005,34 +7005,34 @@
         <v>328.6927805862687</v>
       </c>
       <c r="G36" t="n">
-        <v>191.4614450466416</v>
+        <v>191.4614450466417</v>
       </c>
       <c r="H36" t="n">
-        <v>92.57422485256285</v>
+        <v>92.57422485256288</v>
       </c>
       <c r="I36" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="J36" t="n">
-        <v>192.0123423106713</v>
+        <v>67.18221732366653</v>
       </c>
       <c r="K36" t="n">
-        <v>554.6861529154022</v>
+        <v>168.0354432859447</v>
       </c>
       <c r="L36" t="n">
-        <v>1103.750244288382</v>
+        <v>479.4600572923424</v>
       </c>
       <c r="M36" t="n">
-        <v>1335.413349768354</v>
+        <v>1146.494450307146</v>
       </c>
       <c r="N36" t="n">
-        <v>1587.616533231045</v>
+        <v>1813.52884332195</v>
       </c>
       <c r="O36" t="n">
-        <v>1888.694729372283</v>
+        <v>2411.949385184311</v>
       </c>
       <c r="P36" t="n">
-        <v>2351.976904226328</v>
+        <v>2559.953419084819</v>
       </c>
       <c r="Q36" t="n">
         <v>2608.970999799081</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>497.972782532316</v>
+        <v>111.0682006494111</v>
       </c>
       <c r="C37" t="n">
-        <v>329.0365996044092</v>
+        <v>89.40057274600551</v>
       </c>
       <c r="D37" t="n">
-        <v>326.1885152165748</v>
+        <v>86.55248835817109</v>
       </c>
       <c r="E37" t="n">
-        <v>325.543976658683</v>
+        <v>85.90794980027928</v>
       </c>
       <c r="F37" t="n">
-        <v>178.6540291607726</v>
+        <v>85.90794980027928</v>
       </c>
       <c r="G37" t="n">
-        <v>157.4918481898191</v>
+        <v>64.74576882932567</v>
       </c>
       <c r="H37" t="n">
-        <v>59.3254499441389</v>
+        <v>59.32544994413891</v>
       </c>
       <c r="I37" t="n">
-        <v>59.3254499441389</v>
+        <v>59.32544994413891</v>
       </c>
       <c r="J37" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="K37" t="n">
         <v>175.0031963795616</v>
@@ -7126,19 +7126,19 @@
         <v>1078.036275976309</v>
       </c>
       <c r="U37" t="n">
-        <v>936.162260524444</v>
+        <v>843.794788690542</v>
       </c>
       <c r="V37" t="n">
-        <v>828.7463273430585</v>
+        <v>736.3788555091563</v>
       </c>
       <c r="W37" t="n">
-        <v>686.5977123305993</v>
+        <v>594.230240496697</v>
       </c>
       <c r="X37" t="n">
-        <v>605.8767164570833</v>
+        <v>366.2406895986796</v>
       </c>
       <c r="Y37" t="n">
-        <v>532.3526923380545</v>
+        <v>145.4481104551495</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1425.190339908249</v>
+        <v>1425.19033990825</v>
       </c>
       <c r="C38" t="n">
-        <v>1203.496377992339</v>
+        <v>1203.49637799234</v>
       </c>
       <c r="D38" t="n">
-        <v>992.4992344100897</v>
+        <v>992.4992344100901</v>
       </c>
       <c r="E38" t="n">
-        <v>753.9795368363471</v>
+        <v>753.9795368363473</v>
       </c>
       <c r="F38" t="n">
         <v>490.262187071241</v>
@@ -7166,19 +7166,19 @@
         <v>220.8355651584416</v>
       </c>
       <c r="H38" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I38" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J38" t="n">
-        <v>230.946488357819</v>
+        <v>230.2307595879576</v>
       </c>
       <c r="K38" t="n">
-        <v>683.360585504966</v>
+        <v>682.6448567351048</v>
       </c>
       <c r="L38" t="n">
-        <v>883.4123033442938</v>
+        <v>1296.181176979379</v>
       </c>
       <c r="M38" t="n">
         <v>1550.446696359098</v>
@@ -7202,22 +7202,22 @@
         <v>2695.08845662547</v>
       </c>
       <c r="T38" t="n">
-        <v>2629.275777544687</v>
+        <v>2629.275777544688</v>
       </c>
       <c r="U38" t="n">
-        <v>2522.884037700441</v>
+        <v>2522.884037700442</v>
       </c>
       <c r="V38" t="n">
-        <v>2339.089705381371</v>
+        <v>2339.089705381372</v>
       </c>
       <c r="W38" t="n">
         <v>2133.589605135759</v>
       </c>
       <c r="X38" t="n">
-        <v>1907.39240189918</v>
+        <v>1907.392401899181</v>
       </c>
       <c r="Y38" t="n">
-        <v>1664.521624947869</v>
+        <v>1664.521624947871</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>191.4614450466417</v>
       </c>
       <c r="H39" t="n">
-        <v>92.57422485256291</v>
+        <v>92.57422485256288</v>
       </c>
       <c r="I39" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J39" t="n">
-        <v>192.0123423106712</v>
+        <v>192.0123423106713</v>
       </c>
       <c r="K39" t="n">
-        <v>554.6861529154021</v>
+        <v>554.6861529154022</v>
       </c>
       <c r="L39" t="n">
-        <v>1103.750244288381</v>
+        <v>1103.750244288382</v>
       </c>
       <c r="M39" t="n">
-        <v>1335.413349768354</v>
+        <v>1427.994700131193</v>
       </c>
       <c r="N39" t="n">
-        <v>1587.616533231044</v>
+        <v>1680.197883593883</v>
       </c>
       <c r="O39" t="n">
         <v>1888.694729372283</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.6445198377815</v>
+        <v>350.7042275078146</v>
       </c>
       <c r="C40" t="n">
-        <v>83.97689193437589</v>
+        <v>329.036599604409</v>
       </c>
       <c r="D40" t="n">
-        <v>81.12880754654149</v>
+        <v>326.1885152165746</v>
       </c>
       <c r="E40" t="n">
-        <v>80.48426898864972</v>
+        <v>178.2754216341814</v>
       </c>
       <c r="F40" t="n">
-        <v>80.48426898864972</v>
+        <v>80.48426898864977</v>
       </c>
       <c r="G40" t="n">
-        <v>59.32208801769613</v>
+        <v>59.32208801769616</v>
       </c>
       <c r="H40" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I40" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J40" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="K40" t="n">
-        <v>175.0031963795615</v>
+        <v>175.0031963795616</v>
       </c>
       <c r="L40" t="n">
-        <v>385.4977640966309</v>
+        <v>385.497764096631</v>
       </c>
       <c r="M40" t="n">
-        <v>617.8238953325997</v>
+        <v>617.8238953325999</v>
       </c>
       <c r="N40" t="n">
-        <v>850.0604468640662</v>
+        <v>850.0604468640665</v>
       </c>
       <c r="O40" t="n">
         <v>1048.552195263982</v>
       </c>
       <c r="P40" t="n">
-        <v>1194.875494300374</v>
+        <v>1194.875494300375</v>
       </c>
       <c r="Q40" t="n">
         <v>1212.747081863726</v>
@@ -7360,22 +7360,22 @@
         <v>1155.644451873024</v>
       </c>
       <c r="T40" t="n">
-        <v>1078.036275976308</v>
+        <v>1078.036275976309</v>
       </c>
       <c r="U40" t="n">
-        <v>936.1622605244436</v>
+        <v>936.162260524444</v>
       </c>
       <c r="V40" t="n">
-        <v>828.7463273430581</v>
+        <v>681.4777723185572</v>
       </c>
       <c r="W40" t="n">
-        <v>539.3291573060974</v>
+        <v>539.3291573060978</v>
       </c>
       <c r="X40" t="n">
-        <v>311.33960640808</v>
+        <v>458.6081614325818</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.0244296435199</v>
+        <v>385.084137313553</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1425.19033990825</v>
+        <v>1425.190339908251</v>
       </c>
       <c r="C41" t="n">
-        <v>1203.496377992339</v>
+        <v>1203.49637799234</v>
       </c>
       <c r="D41" t="n">
-        <v>992.4992344100903</v>
+        <v>992.499234410091</v>
       </c>
       <c r="E41" t="n">
-        <v>753.9795368363475</v>
+        <v>753.9795368363481</v>
       </c>
       <c r="F41" t="n">
-        <v>490.2621870712414</v>
+        <v>490.2621870712418</v>
       </c>
       <c r="G41" t="n">
         <v>220.8355651584416</v>
       </c>
       <c r="H41" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I41" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J41" t="n">
-        <v>141.9914040259833</v>
+        <v>275.2004073269508</v>
       </c>
       <c r="K41" t="n">
-        <v>594.4055011731305</v>
+        <v>727.6145044740979</v>
       </c>
       <c r="L41" t="n">
-        <v>794.4572190124585</v>
+        <v>927.6662223134259</v>
       </c>
       <c r="M41" t="n">
-        <v>1048.722738392177</v>
+        <v>1594.70061532823</v>
       </c>
       <c r="N41" t="n">
-        <v>1311.716348080709</v>
+        <v>1857.694225016762</v>
       </c>
       <c r="O41" t="n">
-        <v>1923.710674291496</v>
+        <v>2092.69637177743</v>
       </c>
       <c r="P41" t="n">
-        <v>2408.359289815719</v>
+        <v>2384.188099959492</v>
       </c>
       <c r="Q41" t="n">
-        <v>2695.08845662547</v>
+        <v>2670.917266769243</v>
       </c>
       <c r="R41" t="n">
         <v>2695.08845662547</v>
@@ -7439,22 +7439,22 @@
         <v>2695.08845662547</v>
       </c>
       <c r="T41" t="n">
-        <v>2629.275777544687</v>
+        <v>2629.275777544689</v>
       </c>
       <c r="U41" t="n">
-        <v>2522.884037700441</v>
+        <v>2522.884037700443</v>
       </c>
       <c r="V41" t="n">
-        <v>2339.089705381372</v>
+        <v>2339.089705381373</v>
       </c>
       <c r="W41" t="n">
-        <v>2133.589605135759</v>
+        <v>2133.58960513576</v>
       </c>
       <c r="X41" t="n">
-        <v>1907.392401899181</v>
+        <v>1907.392401899182</v>
       </c>
       <c r="Y41" t="n">
-        <v>1664.52162494787</v>
+        <v>1664.521624947871</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>92.57422485256288</v>
       </c>
       <c r="I42" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J42" t="n">
         <v>67.18221732366655</v>
@@ -7503,10 +7503,10 @@
         <v>1462.78640824404</v>
       </c>
       <c r="O42" t="n">
-        <v>1888.694729372283</v>
+        <v>2061.206950106402</v>
       </c>
       <c r="P42" t="n">
-        <v>2351.976904226328</v>
+        <v>2524.489124960447</v>
       </c>
       <c r="Q42" t="n">
         <v>2608.970999799081</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>400.1816298867841</v>
+        <v>230.2837970722945</v>
       </c>
       <c r="C43" t="n">
-        <v>231.2454469588772</v>
+        <v>208.6161691688889</v>
       </c>
       <c r="D43" t="n">
-        <v>81.12880754654148</v>
+        <v>205.7680847810545</v>
       </c>
       <c r="E43" t="n">
-        <v>80.4842689886497</v>
+        <v>205.1235462231626</v>
       </c>
       <c r="F43" t="n">
-        <v>80.4842689886497</v>
+        <v>205.1235462231626</v>
       </c>
       <c r="G43" t="n">
-        <v>59.32208801769612</v>
+        <v>183.961365252209</v>
       </c>
       <c r="H43" t="n">
-        <v>53.9017691325094</v>
+        <v>178.5410463670223</v>
       </c>
       <c r="I43" t="n">
-        <v>53.9017691325094</v>
+        <v>59.32544994413892</v>
       </c>
       <c r="J43" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="K43" t="n">
         <v>175.0031963795616</v>
@@ -7606,13 +7606,13 @@
         <v>828.7463273430585</v>
       </c>
       <c r="W43" t="n">
-        <v>686.5977123305993</v>
+        <v>539.3291573060978</v>
       </c>
       <c r="X43" t="n">
-        <v>605.8767164570833</v>
+        <v>458.6081614325818</v>
       </c>
       <c r="Y43" t="n">
-        <v>532.3526923380545</v>
+        <v>264.6637068780329</v>
       </c>
     </row>
     <row r="44">
@@ -7628,46 +7628,46 @@
         <v>1203.496377992339</v>
       </c>
       <c r="D44" t="n">
-        <v>992.4992344100899</v>
+        <v>992.4992344100897</v>
       </c>
       <c r="E44" t="n">
-        <v>753.9795368363468</v>
+        <v>753.9795368363471</v>
       </c>
       <c r="F44" t="n">
-        <v>490.2621870712405</v>
+        <v>490.2621870712407</v>
       </c>
       <c r="G44" t="n">
         <v>220.8355651584416</v>
       </c>
       <c r="H44" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="I44" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="J44" t="n">
         <v>275.2004073269507</v>
       </c>
       <c r="K44" t="n">
-        <v>406.7105460286448</v>
+        <v>727.6145044740979</v>
       </c>
       <c r="L44" t="n">
-        <v>673.2204625909869</v>
+        <v>927.6662223134259</v>
       </c>
       <c r="M44" t="n">
-        <v>1340.25485560579</v>
+        <v>1181.931741693145</v>
       </c>
       <c r="N44" t="n">
-        <v>2007.289248620594</v>
+        <v>1444.925351381677</v>
       </c>
       <c r="O44" t="n">
-        <v>2242.291395381263</v>
+        <v>1899.539484435268</v>
       </c>
       <c r="P44" t="n">
-        <v>2408.359289815718</v>
+        <v>2384.188099959491</v>
       </c>
       <c r="Q44" t="n">
-        <v>2695.088456625469</v>
+        <v>2670.917266769242</v>
       </c>
       <c r="R44" t="n">
         <v>2695.088456625469</v>
@@ -7716,13 +7716,13 @@
         <v>328.6927805862687</v>
       </c>
       <c r="G45" t="n">
-        <v>191.4614450466416</v>
+        <v>191.4614450466417</v>
       </c>
       <c r="H45" t="n">
-        <v>92.57422485256285</v>
+        <v>92.57422485256288</v>
       </c>
       <c r="I45" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="J45" t="n">
         <v>192.0123423106713</v>
@@ -7734,13 +7734,13 @@
         <v>1103.750244288382</v>
       </c>
       <c r="M45" t="n">
-        <v>1335.413349768354</v>
+        <v>1427.994700131193</v>
       </c>
       <c r="N45" t="n">
-        <v>1995.476024547421</v>
+        <v>1680.197883593883</v>
       </c>
       <c r="O45" t="n">
-        <v>2203.972870325821</v>
+        <v>1888.694729372283</v>
       </c>
       <c r="P45" t="n">
         <v>2351.976904226328</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>350.7042275078146</v>
+        <v>400.1816298867842</v>
       </c>
       <c r="C46" t="n">
-        <v>329.036599604409</v>
+        <v>231.2454469588773</v>
       </c>
       <c r="D46" t="n">
-        <v>326.1885152165747</v>
+        <v>228.3973625710429</v>
       </c>
       <c r="E46" t="n">
-        <v>325.5439766586829</v>
+        <v>80.48426898864976</v>
       </c>
       <c r="F46" t="n">
-        <v>178.6540291607725</v>
+        <v>80.48426898864976</v>
       </c>
       <c r="G46" t="n">
-        <v>157.4918481898189</v>
+        <v>59.32208801769615</v>
       </c>
       <c r="H46" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="I46" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="J46" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="K46" t="n">
         <v>175.0031963795616</v>
@@ -7834,22 +7834,22 @@
         <v>1155.644451873024</v>
       </c>
       <c r="T46" t="n">
-        <v>1078.036275976309</v>
+        <v>980.245123330777</v>
       </c>
       <c r="U46" t="n">
-        <v>936.162260524444</v>
+        <v>838.3711078789124</v>
       </c>
       <c r="V46" t="n">
-        <v>828.7463273430585</v>
+        <v>730.9551746975268</v>
       </c>
       <c r="W46" t="n">
-        <v>539.3291573060978</v>
+        <v>588.8065596850674</v>
       </c>
       <c r="X46" t="n">
-        <v>458.6081614325818</v>
+        <v>508.0855638115514</v>
       </c>
       <c r="Y46" t="n">
-        <v>385.084137313553</v>
+        <v>434.5615396925226</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>40.1754432802322</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>198.1952070656009</v>
       </c>
       <c r="N11" t="n">
-        <v>189.3789542284156</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>217.6531592060552</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4351520834355824</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>41.30107658386416</v>
+        <v>41.3010765838641</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,19 +8775,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>221.025928176455</v>
+        <v>67.85972841249202</v>
       </c>
       <c r="N12" t="n">
-        <v>200.2783746585583</v>
+        <v>200.2783746585587</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>56.91108797188522</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>354.18323030154</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>368.7865600639892</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>359.9703072268043</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>55.58437101770872</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>41.3010765838641</v>
+        <v>41.30107658386407</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>285.2833788561695</v>
+        <v>308.3053528294409</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9170,16 +9170,16 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>368.7865600639897</v>
       </c>
       <c r="N17" t="n">
-        <v>55.58437101770755</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>8.596519125202491</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>285.2833788561713</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.52278966120063</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>354.1832303015408</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>368.7865600639897</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>359.9703072268047</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>115.3820866070639</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>41.3010765838641</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>308.3053528294419</v>
       </c>
       <c r="Q21" t="n">
-        <v>199.9198719253517</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>354.8324058928066</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>69.28330643979692</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>41.3010765838641</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>3.541519611591212</v>
+        <v>3.541519611591923</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9881,22 +9881,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>393.8032040337964</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>65.47178824948429</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>41.30107658386413</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9963,10 +9963,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>93.51651551801942</v>
       </c>
       <c r="O27" t="n">
-        <v>93.51651551801928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>362.2832287429081</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>234.5684034215579</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10194,19 +10194,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>93.51651551801928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>317.1145657114157</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10361,16 +10361,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>293.5698765128218</v>
       </c>
       <c r="P32" t="n">
-        <v>41.05644496036595</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>41.3010765838641</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>93.51651551801928</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>18.1169648812272</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>34.5420663832173</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10595,19 +10595,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>408.1220033598705</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>78.85222530480223</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>41.3010765838641</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>130.8004691755991</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>439.7689773079101</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>419.0214237900133</v>
       </c>
       <c r="O36" t="n">
-        <v>93.51651551801882</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.3956869204257</v>
+        <v>123.6727285670302</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>416.9382561970558</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>408.122003359871</v>
+        <v>408.1220033598707</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>41.30107658386419</v>
+        <v>41.3010765838641</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>93.51651551801888</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>93.5165155180199</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>34.54206638321777</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,22 +11066,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>416.9382561970557</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>126.6907411591988</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>41.3010765838641</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>219.6075508584278</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>35.82251931754716</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,28 +11297,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>67.1294936596102</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>416.9382561970554</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>408.1220033598705</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>221.8302891847706</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>41.3010765838641</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,16 +11382,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>93.51651551801888</v>
       </c>
       <c r="N45" t="n">
-        <v>411.979284157956</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303.165107859198</v>
+        <v>303.1651078591981</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>285.7041579667251</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>302.3616362679792</v>
+        <v>302.3616362679793</v>
       </c>
       <c r="F11" t="n">
-        <v>327.3073119374289</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>23.94276850040937</v>
+        <v>23.94276850040943</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>131.3816879599484</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>152.0275786371127</v>
+        <v>76.82889590191107</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>248.1835246658524</v>
       </c>
       <c r="W11" t="n">
         <v>269.6722349131305</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>303.165107859198</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>262.7907911929363</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>302.3616362679792</v>
       </c>
       <c r="F14" t="n">
-        <v>327.3073119374289</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>131.3816879599484</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>269.6722349131305</v>
       </c>
       <c r="X14" t="n">
-        <v>290.1623668741865</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>119.4661685485517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>13.42632660718729</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>13.42632660718867</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -24020,10 +24020,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>13.42632660718868</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>13.42632660718854</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>903789.9491603203</v>
+        <v>903789.9491603205</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1008062.925987668</v>
+        <v>1008062.925987669</v>
       </c>
     </row>
     <row r="7">
@@ -26317,43 +26317,43 @@
         <v>389156.2608905932</v>
       </c>
       <c r="D2" t="n">
-        <v>389156.2608905931</v>
+        <v>389156.2608905932</v>
       </c>
       <c r="E2" t="n">
-        <v>321936.058285118</v>
+        <v>321936.0582851179</v>
       </c>
       <c r="F2" t="n">
-        <v>346967.4474730156</v>
+        <v>346967.4474730158</v>
       </c>
       <c r="G2" t="n">
-        <v>389487.1912765165</v>
+        <v>389487.1912765168</v>
       </c>
       <c r="H2" t="n">
-        <v>389487.1912765166</v>
+        <v>389487.1912765168</v>
       </c>
       <c r="I2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="J2" t="n">
-        <v>389994.8406855352</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="K2" t="n">
         <v>389994.8406855348</v>
       </c>
       <c r="L2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="M2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="N2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="O2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="P2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855342</v>
       </c>
     </row>
     <row r="3">
@@ -26372,34 +26372,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>753993.2266122001</v>
+        <v>753993.2266122005</v>
       </c>
       <c r="F3" t="n">
-        <v>48878.85800921637</v>
+        <v>48878.85800921639</v>
       </c>
       <c r="G3" t="n">
-        <v>63654.98704342604</v>
+        <v>63654.987043426</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>920.0015970187211</v>
+        <v>920.0015970186606</v>
       </c>
       <c r="J3" t="n">
-        <v>75818.20182542162</v>
+        <v>75818.20182542148</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63654.98704342604</v>
+        <v>63654.98704342602</v>
       </c>
       <c r="M3" t="n">
         <v>105300.8148108541</v>
       </c>
       <c r="N3" t="n">
-        <v>41782.42831583644</v>
+        <v>41782.42831583641</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>441649.2499958205</v>
       </c>
       <c r="E4" t="n">
-        <v>138905.8300766321</v>
+        <v>138905.830076632</v>
       </c>
       <c r="F4" t="n">
         <v>160091.4048491452</v>
@@ -26436,7 +26436,7 @@
         <v>210988.9811331991</v>
       </c>
       <c r="I4" t="n">
-        <v>211418.63545371</v>
+        <v>211418.6354537099</v>
       </c>
       <c r="J4" t="n">
         <v>201346.1402347315</v>
@@ -26451,7 +26451,7 @@
         <v>209486.944619368</v>
       </c>
       <c r="N4" t="n">
-        <v>209486.9446193681</v>
+        <v>209486.944619368</v>
       </c>
       <c r="O4" t="n">
         <v>209486.944619368</v>
@@ -26476,37 +26476,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>49400.51786652592</v>
+        <v>49400.51786652594</v>
       </c>
       <c r="F5" t="n">
-        <v>59772.47212882796</v>
+        <v>59772.47212882799</v>
       </c>
       <c r="G5" t="n">
-        <v>66461.7360110202</v>
+        <v>66461.73601102021</v>
       </c>
       <c r="H5" t="n">
-        <v>66461.7360110202</v>
+        <v>66461.73601102021</v>
       </c>
       <c r="I5" t="n">
-        <v>66672.08456227691</v>
+        <v>66672.08456227693</v>
       </c>
       <c r="J5" t="n">
+        <v>77601.21311784603</v>
+      </c>
+      <c r="K5" t="n">
+        <v>77601.21311784604</v>
+      </c>
+      <c r="L5" t="n">
         <v>77601.21311784605</v>
-      </c>
-      <c r="K5" t="n">
-        <v>77601.21311784603</v>
-      </c>
-      <c r="L5" t="n">
-        <v>77601.21311784603</v>
       </c>
       <c r="M5" t="n">
         <v>68267.74432235741</v>
       </c>
       <c r="N5" t="n">
-        <v>68267.74432235741</v>
+        <v>68267.74432235744</v>
       </c>
       <c r="O5" t="n">
-        <v>68267.74432235742</v>
+        <v>68267.74432235744</v>
       </c>
       <c r="P5" t="n">
         <v>68267.74432235741</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-86120.58910522729</v>
+        <v>-86125.00268309534</v>
       </c>
       <c r="C6" t="n">
-        <v>-86120.58910522729</v>
+        <v>-86125.00268309546</v>
       </c>
       <c r="D6" t="n">
-        <v>-86120.58910522735</v>
+        <v>-86125.00268309534</v>
       </c>
       <c r="E6" t="n">
-        <v>-620363.5162702402</v>
+        <v>-620721.7203881375</v>
       </c>
       <c r="F6" t="n">
-        <v>78224.71248582602</v>
+        <v>77998.25252154974</v>
       </c>
       <c r="G6" t="n">
-        <v>48381.48708887119</v>
+        <v>48378.81524987664</v>
       </c>
       <c r="H6" t="n">
-        <v>112036.4741322974</v>
+        <v>112033.8022933026</v>
       </c>
       <c r="I6" t="n">
-        <v>110984.1190725289</v>
+        <v>110984.1190725288</v>
       </c>
       <c r="J6" t="n">
-        <v>35229.28550753597</v>
+        <v>35229.28550753577</v>
       </c>
       <c r="K6" t="n">
-        <v>111047.4873329572</v>
+        <v>111047.4873329573</v>
       </c>
       <c r="L6" t="n">
-        <v>47392.50028953105</v>
+        <v>47392.50028953119</v>
       </c>
       <c r="M6" t="n">
-        <v>6939.336932955077</v>
+        <v>6939.336932954873</v>
       </c>
       <c r="N6" t="n">
-        <v>70457.72342797264</v>
+        <v>70457.72342797258</v>
       </c>
       <c r="O6" t="n">
-        <v>112240.1517438092</v>
+        <v>112240.1517438089</v>
       </c>
       <c r="P6" t="n">
-        <v>112240.1517438094</v>
+        <v>112240.1517438088</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="F2" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="G2" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="H2" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="I2" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="J2" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="K2" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="L2" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="M2" t="n">
         <v>145.7958694742563</v>
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690.1599463678451</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="F3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678455</v>
       </c>
       <c r="G3" t="n">
         <v>690.1599463678454</v>
@@ -26759,7 +26759,7 @@
         <v>690.1599463678454</v>
       </c>
       <c r="J3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678452</v>
       </c>
       <c r="K3" t="n">
         <v>690.1599463678454</v>
@@ -26771,7 +26771,7 @@
         <v>690.1599463678454</v>
       </c>
       <c r="N3" t="n">
-        <v>690.159946367845</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="O3" t="n">
         <v>690.1599463678454</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>455.0290650249123</v>
+        <v>455.0290650249128</v>
       </c>
       <c r="F4" t="n">
-        <v>625.6204180233011</v>
+        <v>625.6204180233016</v>
       </c>
       <c r="G4" t="n">
-        <v>625.6204180233011</v>
+        <v>625.6204180233016</v>
       </c>
       <c r="H4" t="n">
-        <v>625.6204180233011</v>
+        <v>625.6204180233016</v>
       </c>
       <c r="I4" t="n">
-        <v>629.0800981426551</v>
+        <v>629.0800981426553</v>
       </c>
       <c r="J4" t="n">
+        <v>918.8562895532035</v>
+      </c>
+      <c r="K4" t="n">
+        <v>918.8562895532037</v>
+      </c>
+      <c r="L4" t="n">
         <v>918.8562895532039</v>
       </c>
-      <c r="K4" t="n">
-        <v>918.8562895532035</v>
-      </c>
-      <c r="L4" t="n">
-        <v>918.8562895532035</v>
-      </c>
       <c r="M4" t="n">
-        <v>673.7721141563673</v>
+        <v>673.7721141563674</v>
       </c>
       <c r="N4" t="n">
-        <v>673.7721141563675</v>
+        <v>673.7721141563676</v>
       </c>
       <c r="O4" t="n">
-        <v>673.7721141563675</v>
+        <v>673.7721141563676</v>
       </c>
       <c r="P4" t="n">
-        <v>673.7721141563673</v>
+        <v>673.7721141563674</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.553435746746745e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="M2" t="n">
-        <v>66.22713566997376</v>
+        <v>66.22713566997375</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690.1599463678451</v>
+        <v>690.1599463678454</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>455.0290650249123</v>
+        <v>455.0290650249128</v>
       </c>
       <c r="F4" t="n">
-        <v>170.5913529983889</v>
+        <v>170.5913529983887</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.459680119353948</v>
+        <v>3.45968011935372</v>
       </c>
       <c r="J4" t="n">
-        <v>289.7761914105488</v>
+        <v>289.7761914105482</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>209.944889628076</v>
+        <v>209.9448896280763</v>
       </c>
       <c r="N4" t="n">
-        <v>170.5913529983891</v>
+        <v>170.591352998389</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.553435746746745e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>455.0290650249123</v>
+        <v>455.0290650249128</v>
       </c>
       <c r="N4" t="n">
-        <v>170.5913529983889</v>
+        <v>170.5913529983887</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="C11" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="D11" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="E11" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="F11" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="G11" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="H11" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="I11" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="T11" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="U11" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="V11" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="W11" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="X11" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
     </row>
     <row r="12">
@@ -28172,22 +28172,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>79.56873380428254</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="F12" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="I12" t="n">
-        <v>38.28573116285295</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.988926598084461</v>
+        <v>7.988926598084433</v>
       </c>
       <c r="S12" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="T12" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="U12" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="V12" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="W12" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="X12" t="n">
-        <v>1.248480811745992</v>
+        <v>1.248480811744969</v>
       </c>
       <c r="Y12" t="n">
-        <v>79.56873380428254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="C13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="D13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="E13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="F13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="G13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="H13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="I13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="J13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="K13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="L13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="M13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="N13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="O13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="P13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428468</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="R13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="S13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="T13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="U13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="V13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="W13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="X13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428246</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="C14" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="D14" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="E14" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="F14" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="G14" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="H14" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="I14" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="T14" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="U14" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="V14" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="W14" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="X14" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
     </row>
     <row r="15">
@@ -28421,10 +28421,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>63.32508893222607</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.28573116285294</v>
+        <v>38.28573116285293</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28457,7 +28457,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>63.32508893222422</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="C16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="D16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="E16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="F16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="G16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="H16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="I16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="J16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="K16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="L16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="M16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="N16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="O16" t="n">
-        <v>79.56873380428223</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="P16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="R16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="S16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="T16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="U16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="V16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="W16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="X16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="C17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="D17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="E17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="F17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="G17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="H17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="I17" t="n">
         <v>103.5115023046919</v>
@@ -28615,22 +28615,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="U17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="V17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="W17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="X17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="Y17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
     </row>
     <row r="18">
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>3.712472102941035</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.89834799213801</v>
+        <v>63.32508893222431</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.28573116285294</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>159.137467608565</v>
       </c>
       <c r="C19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28731,10 +28731,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>151.1619851705912</v>
@@ -28770,25 +28770,25 @@
         <v>121.3338652339668</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>92.18867702534638</v>
       </c>
       <c r="T19" t="n">
-        <v>105.9050966109796</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>159.137467608565</v>
       </c>
       <c r="W19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="X19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="Y19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="C20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="D20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="E20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="F20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="G20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="H20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="I20" t="n">
         <v>103.5115023046919</v>
@@ -28852,22 +28852,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="U20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="V20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="W20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="X20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="Y20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
     </row>
     <row r="21">
@@ -28883,7 +28883,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>63.32508893222611</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>38.28573116285294</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,7 +28928,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>101.6108200950767</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="C22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="H22" t="n">
-        <v>151.1619851705912</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>118.0234404586545</v>
+        <v>56.81558702309558</v>
       </c>
       <c r="J22" t="n">
         <v>5.369444003513223</v>
@@ -29007,25 +29007,25 @@
         <v>121.3338652339668</v>
       </c>
       <c r="S22" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="V22" t="n">
-        <v>79.48517206335001</v>
+        <v>159.137467608565</v>
       </c>
       <c r="W22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>159.137467608565</v>
       </c>
       <c r="Y22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="C23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="D23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="E23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="F23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="G23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="H23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="I23" t="n">
         <v>103.5115023046919</v>
@@ -29089,22 +29089,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="U23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="V23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="W23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="X23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="Y23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
     </row>
     <row r="24">
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>49.89876232503727</v>
+        <v>88.18449348788934</v>
       </c>
       <c r="I24" t="n">
-        <v>38.28573116285294</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,22 +29193,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="C25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>97.92961417300576</v>
+        <v>159.137467608565</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J25" t="n">
-        <v>5.369444003513223</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>121.3338652339668</v>
       </c>
       <c r="S25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="T25" t="n">
-        <v>159.1374676085651</v>
+        <v>76.87913362888975</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>159.137467608565</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>159.137467608565</v>
       </c>
       <c r="W25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="X25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="Y25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="C26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="D26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="E26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="F26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="G26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="H26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="I26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="T26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="U26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="V26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="W26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="X26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="C28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="D28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="E28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="F28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="G28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="H28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="I28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="J28" t="n">
-        <v>79.56873380428235</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="K28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="L28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="M28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="N28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="O28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="P28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="R28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="S28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="T28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="U28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="V28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="W28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="X28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="C29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="D29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="E29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="F29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="G29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="H29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="I29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="T29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="U29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="V29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="W29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="X29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="C31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="D31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="E31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="F31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="G31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="H31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="I31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="J31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="K31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="L31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="M31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="N31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="O31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="P31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="R31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="S31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="T31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="U31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="V31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="W31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="X31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.56873380428254</v>
+        <v>79.5687338042825</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="C32" t="n">
-        <v>79.5687338042826</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="D32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="E32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="F32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="G32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="H32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="I32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="T32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="U32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="V32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="W32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="X32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="C34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="D34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="E34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="F34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="G34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="H34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="I34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="J34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="K34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="L34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="M34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="N34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="O34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="P34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="R34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="S34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="T34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="U34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="V34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="W34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="X34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.56873380428254</v>
+        <v>79.56873380428253</v>
       </c>
     </row>
     <row r="35">
@@ -30144,7 +30144,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="D37" t="n">
         <v>145.7958694742563</v>
@@ -30153,13 +30153,13 @@
         <v>145.7958694742563</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="H37" t="n">
-        <v>53.9772509073678</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="I37" t="n">
         <v>118.0234404586545</v>
@@ -30198,7 +30198,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="U37" t="n">
-        <v>145.7958694742563</v>
+        <v>54.35207235869328</v>
       </c>
       <c r="V37" t="n">
         <v>145.7958694742563</v>
@@ -30207,10 +30207,10 @@
         <v>145.7958694742563</v>
       </c>
       <c r="X37" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30387,10 +30387,10 @@
         <v>145.7958694742563</v>
       </c>
       <c r="E40" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>48.60780690385491</v>
       </c>
       <c r="G40" t="n">
         <v>145.7958694742563</v>
@@ -30402,7 +30402,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J40" t="n">
-        <v>5.369444003513266</v>
+        <v>5.369444003513223</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>121.3338652339669</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S40" t="n">
         <v>145.7958694742563</v>
@@ -30438,16 +30438,16 @@
         <v>145.7958694742563</v>
       </c>
       <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>145.7958694742563</v>
       </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.98262835518022</v>
+        <v>145.7958694742563</v>
       </c>
     </row>
     <row r="41">
@@ -30615,13 +30615,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.98262835517966</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="E43" t="n">
         <v>145.7958694742563</v>
@@ -30636,10 +30636,10 @@
         <v>145.7958694742563</v>
       </c>
       <c r="I43" t="n">
-        <v>118.0234404586545</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.369444003513223</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30678,13 +30678,13 @@
         <v>145.7958694742563</v>
       </c>
       <c r="W43" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="Y43" t="n">
-        <v>145.7958694742563</v>
+        <v>26.57964334309142</v>
       </c>
     </row>
     <row r="44">
@@ -30855,22 +30855,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="C46" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="E46" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="H46" t="n">
-        <v>48.60780690385469</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="I46" t="n">
         <v>118.0234404586545</v>
@@ -30906,7 +30906,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T46" t="n">
-        <v>145.7958694742563</v>
+        <v>48.98262835518008</v>
       </c>
       <c r="U46" t="n">
         <v>145.7958694742563</v>
@@ -30915,7 +30915,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="X46" t="n">
         <v>145.7958694742563</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.774512347207415</v>
+        <v>2.774512347207416</v>
       </c>
       <c r="H11" t="n">
-        <v>28.41447457583795</v>
+        <v>28.41447457583796</v>
       </c>
       <c r="I11" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J11" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K11" t="n">
-        <v>352.9283749860855</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L11" t="n">
-        <v>437.8388572319346</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M11" t="n">
-        <v>487.1800911865844</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N11" t="n">
-        <v>495.0631743930875</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O11" t="n">
-        <v>467.4741172405438</v>
+        <v>467.4741172405439</v>
       </c>
       <c r="P11" t="n">
-        <v>398.9783436688606</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.616120234495</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R11" t="n">
         <v>174.284461230268</v>
       </c>
       <c r="S11" t="n">
-        <v>63.22420011198904</v>
+        <v>63.22420011198906</v>
       </c>
       <c r="T11" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2219609877765932</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.484494978979893</v>
+        <v>1.484494978979894</v>
       </c>
       <c r="H12" t="n">
         <v>14.33709624435845</v>
       </c>
       <c r="I12" t="n">
-        <v>51.11090168856212</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J12" t="n">
-        <v>140.2522207991486</v>
+        <v>140.2522207991487</v>
       </c>
       <c r="K12" t="n">
         <v>239.7133843908015</v>
       </c>
       <c r="L12" t="n">
-        <v>322.3242277824545</v>
+        <v>322.3242277824546</v>
       </c>
       <c r="M12" t="n">
-        <v>376.1371707704756</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N12" t="n">
-        <v>386.0924024496873</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O12" t="n">
-        <v>353.1991189680801</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P12" t="n">
-        <v>283.473431556257</v>
+        <v>283.4734315562571</v>
       </c>
       <c r="Q12" t="n">
-        <v>189.4944818782053</v>
+        <v>189.4944818782054</v>
       </c>
       <c r="R12" t="n">
-        <v>92.16890755455867</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S12" t="n">
         <v>27.57384314026248</v>
       </c>
       <c r="T12" t="n">
-        <v>5.98355651615141</v>
+        <v>5.983556516151411</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09766414335394039</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31917,16 +31917,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J13" t="n">
-        <v>87.98973611315952</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K13" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L13" t="n">
-        <v>185.0307502114711</v>
+        <v>185.0307502114712</v>
       </c>
       <c r="M13" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N13" t="n">
         <v>190.4502029050811</v>
@@ -31935,22 +31935,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P13" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q13" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R13" t="n">
-        <v>55.95952614320264</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S13" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T13" t="n">
-        <v>5.317625816276838</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06788458488864058</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207417</v>
       </c>
       <c r="H14" t="n">
         <v>28.41447457583796</v>
@@ -32005,25 +32005,25 @@
         <v>437.8388572319348</v>
       </c>
       <c r="M14" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865847</v>
       </c>
       <c r="N14" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930878</v>
       </c>
       <c r="O14" t="n">
-        <v>467.4741172405439</v>
+        <v>467.474117240544</v>
       </c>
       <c r="P14" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688609</v>
       </c>
       <c r="Q14" t="n">
-        <v>299.6161202344951</v>
+        <v>299.6161202344952</v>
       </c>
       <c r="R14" t="n">
-        <v>174.284461230268</v>
+        <v>174.2844612302681</v>
       </c>
       <c r="S14" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198908</v>
       </c>
       <c r="T14" t="n">
         <v>12.14542779990047</v>
@@ -32072,22 +32072,22 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I15" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856215</v>
       </c>
       <c r="J15" t="n">
         <v>140.2522207991487</v>
       </c>
       <c r="K15" t="n">
-        <v>239.7133843908015</v>
+        <v>239.7133843908016</v>
       </c>
       <c r="L15" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824547</v>
       </c>
       <c r="M15" t="n">
         <v>376.1371707704757</v>
       </c>
       <c r="N15" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496875</v>
       </c>
       <c r="O15" t="n">
         <v>353.1991189680803</v>
@@ -32099,16 +32099,16 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R15" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455871</v>
       </c>
       <c r="S15" t="n">
-        <v>27.57384314026248</v>
+        <v>27.57384314026249</v>
       </c>
       <c r="T15" t="n">
-        <v>5.983556516151411</v>
+        <v>5.983556516151413</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.09766414335394044</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.244550722958409</v>
+        <v>1.24455072295841</v>
       </c>
       <c r="H16" t="n">
         <v>11.06518733684841</v>
       </c>
       <c r="I16" t="n">
-        <v>37.42703446860381</v>
+        <v>37.42703446860382</v>
       </c>
       <c r="J16" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315957</v>
       </c>
       <c r="K16" t="n">
         <v>144.5941658128043</v>
@@ -32169,16 +32169,16 @@
         <v>190.4502029050811</v>
       </c>
       <c r="O16" t="n">
-        <v>175.9115876414305</v>
+        <v>175.9115876414306</v>
       </c>
       <c r="P16" t="n">
         <v>150.5227528930789</v>
       </c>
       <c r="Q16" t="n">
-        <v>104.2141519015446</v>
+        <v>104.2141519015447</v>
       </c>
       <c r="R16" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320267</v>
       </c>
       <c r="S16" t="n">
         <v>21.68912487192064</v>
@@ -32944,28 +32944,28 @@
         <v>106.964387265714</v>
       </c>
       <c r="J26" t="n">
-        <v>235.4832673287957</v>
+        <v>235.4832673287956</v>
       </c>
       <c r="K26" t="n">
-        <v>352.9283749860857</v>
+        <v>352.9283749860856</v>
       </c>
       <c r="L26" t="n">
-        <v>437.8388572319348</v>
+        <v>437.8388572319346</v>
       </c>
       <c r="M26" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865845</v>
       </c>
       <c r="N26" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930876</v>
       </c>
       <c r="O26" t="n">
         <v>467.4741172405439</v>
       </c>
       <c r="P26" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688607</v>
       </c>
       <c r="Q26" t="n">
-        <v>299.6161202344951</v>
+        <v>299.616120234495</v>
       </c>
       <c r="R26" t="n">
         <v>174.284461230268</v>
@@ -32977,7 +32977,7 @@
         <v>12.14542779990047</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2219609877765933</v>
+        <v>0.2219609877765932</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I27" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856213</v>
       </c>
       <c r="J27" t="n">
         <v>140.2522207991487</v>
@@ -33032,13 +33032,13 @@
         <v>322.3242277824546</v>
       </c>
       <c r="M27" t="n">
-        <v>376.1371707704757</v>
+        <v>376.1371707704756</v>
       </c>
       <c r="N27" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496873</v>
       </c>
       <c r="O27" t="n">
-        <v>353.1991189680803</v>
+        <v>353.1991189680802</v>
       </c>
       <c r="P27" t="n">
         <v>283.4734315562571</v>
@@ -33047,7 +33047,7 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R27" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455869</v>
       </c>
       <c r="S27" t="n">
         <v>27.57384314026248</v>
@@ -33056,7 +33056,7 @@
         <v>5.983556516151411</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.0976641433539404</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33102,16 +33102,16 @@
         <v>37.42703446860381</v>
       </c>
       <c r="J28" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315954</v>
       </c>
       <c r="K28" t="n">
-        <v>144.5941658128043</v>
+        <v>144.5941658128042</v>
       </c>
       <c r="L28" t="n">
         <v>185.0307502114712</v>
       </c>
       <c r="M28" t="n">
-        <v>195.0889828724714</v>
+        <v>195.0889828724713</v>
       </c>
       <c r="N28" t="n">
         <v>190.4502029050811</v>
@@ -33120,22 +33120,22 @@
         <v>175.9115876414305</v>
       </c>
       <c r="P28" t="n">
-        <v>150.5227528930789</v>
+        <v>150.5227528930788</v>
       </c>
       <c r="Q28" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R28" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320264</v>
       </c>
       <c r="S28" t="n">
-        <v>21.68912487192064</v>
+        <v>21.68912487192063</v>
       </c>
       <c r="T28" t="n">
-        <v>5.31762581627684</v>
+        <v>5.317625816276839</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0678845848886406</v>
+        <v>0.06788458488864059</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.774512347207415</v>
+        <v>2.774512347207416</v>
       </c>
       <c r="H38" t="n">
-        <v>28.41447457583795</v>
+        <v>28.41447457583796</v>
       </c>
       <c r="I38" t="n">
         <v>106.964387265714</v>
       </c>
       <c r="J38" t="n">
-        <v>235.4832673287956</v>
+        <v>235.4832673287957</v>
       </c>
       <c r="K38" t="n">
-        <v>352.9283749860855</v>
+        <v>352.9283749860857</v>
       </c>
       <c r="L38" t="n">
-        <v>437.8388572319345</v>
+        <v>437.8388572319348</v>
       </c>
       <c r="M38" t="n">
-        <v>487.1800911865844</v>
+        <v>487.1800911865846</v>
       </c>
       <c r="N38" t="n">
-        <v>495.0631743930875</v>
+        <v>495.0631743930877</v>
       </c>
       <c r="O38" t="n">
-        <v>467.4741172405437</v>
+        <v>467.4741172405439</v>
       </c>
       <c r="P38" t="n">
-        <v>398.9783436688606</v>
+        <v>398.9783436688608</v>
       </c>
       <c r="Q38" t="n">
-        <v>299.6161202344949</v>
+        <v>299.6161202344951</v>
       </c>
       <c r="R38" t="n">
-        <v>174.2844612302679</v>
+        <v>174.284461230268</v>
       </c>
       <c r="S38" t="n">
-        <v>63.22420011198903</v>
+        <v>63.22420011198906</v>
       </c>
       <c r="T38" t="n">
         <v>12.14542779990047</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2219609877765931</v>
+        <v>0.2219609877765933</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.484494978979893</v>
+        <v>1.484494978979894</v>
       </c>
       <c r="H39" t="n">
-        <v>14.33709624435844</v>
+        <v>14.33709624435845</v>
       </c>
       <c r="I39" t="n">
-        <v>51.11090168856212</v>
+        <v>51.11090168856214</v>
       </c>
       <c r="J39" t="n">
-        <v>140.2522207991486</v>
+        <v>140.2522207991487</v>
       </c>
       <c r="K39" t="n">
-        <v>239.7133843908014</v>
+        <v>239.7133843908015</v>
       </c>
       <c r="L39" t="n">
-        <v>322.3242277824544</v>
+        <v>322.3242277824546</v>
       </c>
       <c r="M39" t="n">
-        <v>376.1371707704755</v>
+        <v>376.1371707704757</v>
       </c>
       <c r="N39" t="n">
-        <v>386.0924024496872</v>
+        <v>386.0924024496874</v>
       </c>
       <c r="O39" t="n">
-        <v>353.1991189680801</v>
+        <v>353.1991189680803</v>
       </c>
       <c r="P39" t="n">
-        <v>283.473431556257</v>
+        <v>283.4734315562571</v>
       </c>
       <c r="Q39" t="n">
-        <v>189.4944818782053</v>
+        <v>189.4944818782054</v>
       </c>
       <c r="R39" t="n">
-        <v>92.16890755455866</v>
+        <v>92.1689075545587</v>
       </c>
       <c r="S39" t="n">
-        <v>27.57384314026247</v>
+        <v>27.57384314026248</v>
       </c>
       <c r="T39" t="n">
-        <v>5.983556516151409</v>
+        <v>5.983556516151411</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09766414335394037</v>
+        <v>0.09766414335394043</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,43 +34047,43 @@
         <v>11.06518733684841</v>
       </c>
       <c r="I40" t="n">
-        <v>37.4270344686038</v>
+        <v>37.42703446860381</v>
       </c>
       <c r="J40" t="n">
-        <v>87.98973611315951</v>
+        <v>87.98973611315955</v>
       </c>
       <c r="K40" t="n">
-        <v>144.5941658128042</v>
+        <v>144.5941658128043</v>
       </c>
       <c r="L40" t="n">
-        <v>185.0307502114711</v>
+        <v>185.0307502114712</v>
       </c>
       <c r="M40" t="n">
-        <v>195.0889828724713</v>
+        <v>195.0889828724714</v>
       </c>
       <c r="N40" t="n">
-        <v>190.450202905081</v>
+        <v>190.4502029050811</v>
       </c>
       <c r="O40" t="n">
-        <v>175.9115876414304</v>
+        <v>175.9115876414305</v>
       </c>
       <c r="P40" t="n">
-        <v>150.5227528930788</v>
+        <v>150.5227528930789</v>
       </c>
       <c r="Q40" t="n">
         <v>104.2141519015446</v>
       </c>
       <c r="R40" t="n">
-        <v>55.95952614320262</v>
+        <v>55.95952614320265</v>
       </c>
       <c r="S40" t="n">
-        <v>21.68912487192063</v>
+        <v>21.68912487192064</v>
       </c>
       <c r="T40" t="n">
-        <v>5.317625816276837</v>
+        <v>5.31762581627684</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06788458488864056</v>
+        <v>0.0678845848886406</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>54.43736280210931</v>
+        <v>223.5339779741832</v>
       </c>
       <c r="K11" t="n">
-        <v>132.838523941105</v>
+        <v>173.0139672213373</v>
       </c>
       <c r="L11" t="n">
-        <v>202.0724422619473</v>
+        <v>202.0724422619475</v>
       </c>
       <c r="M11" t="n">
-        <v>256.8338579593117</v>
+        <v>455.0290650249128</v>
       </c>
       <c r="N11" t="n">
-        <v>455.0290650249123</v>
+        <v>265.6501107964968</v>
       </c>
       <c r="O11" t="n">
-        <v>455.0290650249123</v>
+        <v>237.3759058188572</v>
       </c>
       <c r="P11" t="n">
-        <v>168.1804999970267</v>
+        <v>167.7453479135913</v>
       </c>
       <c r="Q11" t="n">
-        <v>77.3104303600455</v>
+        <v>77.31043036004561</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>101.8719454164425</v>
       </c>
       <c r="L12" t="n">
-        <v>183.7698480025803</v>
+        <v>183.7698480025804</v>
       </c>
       <c r="M12" t="n">
-        <v>455.0290650249123</v>
+        <v>301.8628652609494</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0290650249123</v>
+        <v>455.0290650249128</v>
       </c>
       <c r="O12" t="n">
-        <v>210.6028745236357</v>
+        <v>210.6028745236358</v>
       </c>
       <c r="P12" t="n">
-        <v>206.410112113812</v>
+        <v>149.4990241419269</v>
       </c>
       <c r="Q12" t="n">
-        <v>49.51270779218382</v>
+        <v>259.589995528033</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.19928980076929</v>
+        <v>74.19928980076924</v>
       </c>
       <c r="K13" t="n">
         <v>201.8934077912039</v>
@@ -35574,7 +35574,7 @@
         <v>292.1895092760698</v>
       </c>
       <c r="M13" t="n">
-        <v>314.2415936385945</v>
+        <v>314.2415936385944</v>
       </c>
       <c r="N13" t="n">
         <v>314.1511090885922</v>
@@ -35583,10 +35583,10 @@
         <v>280.0654493597527</v>
       </c>
       <c r="P13" t="n">
-        <v>227.3700459622548</v>
+        <v>227.370045962257</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.62084245413277</v>
+        <v>97.62084245413271</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>54.43736280210939</v>
+        <v>223.5339779741832</v>
       </c>
       <c r="K14" t="n">
-        <v>132.8385239411051</v>
+        <v>456.9839365122699</v>
       </c>
       <c r="L14" t="n">
-        <v>556.2556725634876</v>
+        <v>202.0724422619476</v>
       </c>
       <c r="M14" t="n">
-        <v>625.6204180233011</v>
+        <v>256.8338579593119</v>
       </c>
       <c r="N14" t="n">
-        <v>625.6204180233011</v>
+        <v>265.6501107964969</v>
       </c>
       <c r="O14" t="n">
-        <v>237.3759058188572</v>
+        <v>292.960276836566</v>
       </c>
       <c r="P14" t="n">
-        <v>167.7453479135913</v>
+        <v>489.544056085074</v>
       </c>
       <c r="Q14" t="n">
-        <v>77.31043036004561</v>
+        <v>289.6254210199504</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>139.5056294728908</v>
       </c>
       <c r="K15" t="n">
-        <v>366.3371824290211</v>
+        <v>366.3371824290212</v>
       </c>
       <c r="L15" t="n">
-        <v>183.7698480025804</v>
+        <v>554.6101933060397</v>
       </c>
       <c r="M15" t="n">
         <v>234.0031368484574</v>
       </c>
       <c r="N15" t="n">
-        <v>254.7506903663541</v>
+        <v>254.7506903663542</v>
       </c>
       <c r="O15" t="n">
-        <v>604.4651938003653</v>
+        <v>210.6028745236359</v>
       </c>
       <c r="P15" t="n">
-        <v>434.7824029980964</v>
+        <v>457.8043769713678</v>
       </c>
       <c r="Q15" t="n">
         <v>259.589995528033</v>
@@ -35817,13 +35817,13 @@
         <v>314.1511090885922</v>
       </c>
       <c r="O16" t="n">
-        <v>280.0654493597524</v>
+        <v>280.0654493597528</v>
       </c>
       <c r="P16" t="n">
         <v>227.3700459622549</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.6208424541328</v>
+        <v>97.62084245413281</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,16 +35890,16 @@
         <v>202.0724422619475</v>
       </c>
       <c r="M17" t="n">
-        <v>256.8338579593119</v>
+        <v>625.6204180233016</v>
       </c>
       <c r="N17" t="n">
-        <v>321.2344818142043</v>
+        <v>265.6501107964968</v>
       </c>
       <c r="O17" t="n">
         <v>237.3759058188572</v>
       </c>
       <c r="P17" t="n">
-        <v>489.5440560850739</v>
+        <v>176.3418670387938</v>
       </c>
       <c r="Q17" t="n">
         <v>289.6254210199503</v>
@@ -35963,10 +35963,10 @@
         <v>139.5056294728908</v>
       </c>
       <c r="K18" t="n">
-        <v>101.8719454164425</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L18" t="n">
-        <v>554.6101933060396</v>
+        <v>469.0532268587517</v>
       </c>
       <c r="M18" t="n">
         <v>234.0031368484574</v>
@@ -35978,10 +35978,10 @@
         <v>604.4651938003653</v>
       </c>
       <c r="P18" t="n">
-        <v>467.9617927818641</v>
+        <v>149.4990241419269</v>
       </c>
       <c r="Q18" t="n">
-        <v>120.0354974533845</v>
+        <v>259.589995528033</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>223.5339779741832</v>
+        <v>54.43736280210939</v>
       </c>
       <c r="K20" t="n">
         <v>132.8385239411051</v>
       </c>
       <c r="L20" t="n">
-        <v>619.733656812398</v>
+        <v>556.2556725634884</v>
       </c>
       <c r="M20" t="n">
-        <v>256.8338579593119</v>
+        <v>625.6204180233016</v>
       </c>
       <c r="N20" t="n">
-        <v>265.6501107964968</v>
+        <v>625.6204180233016</v>
       </c>
       <c r="O20" t="n">
-        <v>618.1760870816025</v>
+        <v>237.3759058188572</v>
       </c>
       <c r="P20" t="n">
         <v>167.7453479135913</v>
       </c>
       <c r="Q20" t="n">
-        <v>192.6925169671096</v>
+        <v>77.31043036004561</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36215,10 +36215,10 @@
         <v>210.6028745236358</v>
       </c>
       <c r="P21" t="n">
-        <v>467.9617927818641</v>
+        <v>457.8043769713688</v>
       </c>
       <c r="Q21" t="n">
-        <v>249.4325797175356</v>
+        <v>259.589995528033</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>54.43736280210939</v>
+        <v>223.5339779741832</v>
       </c>
       <c r="K23" t="n">
         <v>456.9839365122698</v>
       </c>
       <c r="L23" t="n">
-        <v>619.733656812398</v>
+        <v>202.0724422619475</v>
       </c>
       <c r="M23" t="n">
-        <v>611.6662638521185</v>
+        <v>256.8338579593119</v>
       </c>
       <c r="N23" t="n">
         <v>265.6501107964968</v>
       </c>
       <c r="O23" t="n">
-        <v>237.3759058188572</v>
+        <v>306.6592122586541</v>
       </c>
       <c r="P23" t="n">
-        <v>167.7453479135913</v>
+        <v>489.5440560850739</v>
       </c>
       <c r="Q23" t="n">
-        <v>77.31043036004561</v>
+        <v>289.6254210199503</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36449,7 +36449,7 @@
         <v>254.7506903663541</v>
       </c>
       <c r="O24" t="n">
-        <v>214.144394135227</v>
+        <v>214.1443941352277</v>
       </c>
       <c r="P24" t="n">
         <v>467.9617927818641</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>223.5339779741832</v>
+        <v>223.5339779741831</v>
       </c>
       <c r="K26" t="n">
         <v>456.9839365122698</v>
       </c>
       <c r="L26" t="n">
-        <v>619.733656812398</v>
+        <v>619.7336568123978</v>
       </c>
       <c r="M26" t="n">
-        <v>256.8338579593119</v>
+        <v>706.3473914521443</v>
       </c>
       <c r="N26" t="n">
-        <v>659.4533148302932</v>
+        <v>702.9970352084808</v>
       </c>
       <c r="O26" t="n">
         <v>618.1760870816025</v>
       </c>
       <c r="P26" t="n">
-        <v>489.5440560850739</v>
+        <v>167.7453479135912</v>
       </c>
       <c r="Q26" t="n">
-        <v>289.6254210199503</v>
+        <v>142.7822186095298</v>
       </c>
       <c r="R26" t="n">
-        <v>24.41534328911834</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>366.3371824290211</v>
       </c>
       <c r="L27" t="n">
-        <v>554.6101933060396</v>
+        <v>554.6101933060395</v>
       </c>
       <c r="M27" t="n">
-        <v>234.0031368484574</v>
+        <v>234.0031368484573</v>
       </c>
       <c r="N27" t="n">
-        <v>254.7506903663541</v>
+        <v>348.2672058843734</v>
       </c>
       <c r="O27" t="n">
-        <v>304.1193900416551</v>
+        <v>210.6028745236358</v>
       </c>
       <c r="P27" t="n">
-        <v>467.9617927818641</v>
+        <v>467.961792781864</v>
       </c>
       <c r="Q27" t="n">
         <v>259.589995528033</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.19928980076912</v>
+        <v>74.19928980076932</v>
       </c>
       <c r="K28" t="n">
-        <v>201.8934077912039</v>
+        <v>201.893407791204</v>
       </c>
       <c r="L28" t="n">
         <v>292.1895092760699</v>
@@ -36771,7 +36771,7 @@
         <v>227.3700459622549</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.62084245413277</v>
+        <v>97.6208424541328</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>619.733656812398</v>
       </c>
       <c r="M29" t="n">
-        <v>706.3473914521444</v>
+        <v>619.11708670222</v>
       </c>
       <c r="N29" t="n">
         <v>702.997035208481</v>
@@ -36847,7 +36847,7 @@
         <v>618.1760870816025</v>
       </c>
       <c r="P29" t="n">
-        <v>402.3137513351492</v>
+        <v>489.5440560850739</v>
       </c>
       <c r="Q29" t="n">
         <v>77.31043036004561</v>
@@ -36914,19 +36914,19 @@
         <v>366.3371824290211</v>
       </c>
       <c r="L30" t="n">
-        <v>554.6101933060396</v>
+        <v>183.7698480025804</v>
       </c>
       <c r="M30" t="n">
-        <v>234.0031368484574</v>
+        <v>699.7082005984573</v>
       </c>
       <c r="N30" t="n">
         <v>254.7506903663541</v>
       </c>
       <c r="O30" t="n">
-        <v>304.1193900416551</v>
+        <v>210.6028745236358</v>
       </c>
       <c r="P30" t="n">
-        <v>467.9617927818641</v>
+        <v>466.6135898533425</v>
       </c>
       <c r="Q30" t="n">
         <v>259.589995528033</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.19928980076932</v>
+        <v>74.19928980076928</v>
       </c>
       <c r="K31" t="n">
-        <v>201.893407791204</v>
+        <v>201.8934077912039</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1895092760699</v>
+        <v>292.1895092760698</v>
       </c>
       <c r="M31" t="n">
         <v>314.2415936385945</v>
@@ -37005,10 +37005,10 @@
         <v>280.0654493597527</v>
       </c>
       <c r="P31" t="n">
-        <v>227.3700459622549</v>
+        <v>227.3700459622548</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.6208424541328</v>
+        <v>97.62084245413276</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>223.5339779741832</v>
+        <v>54.43736280210939</v>
       </c>
       <c r="K32" t="n">
         <v>456.9839365122698</v>
@@ -37081,16 +37081,16 @@
         <v>702.997035208481</v>
       </c>
       <c r="O32" t="n">
-        <v>618.1760870816025</v>
+        <v>530.945782331679</v>
       </c>
       <c r="P32" t="n">
-        <v>208.8017928739572</v>
+        <v>489.5440560850739</v>
       </c>
       <c r="Q32" t="n">
         <v>77.31043036004561</v>
       </c>
       <c r="R32" t="n">
-        <v>24.41534328911834</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>254.7506903663541</v>
       </c>
       <c r="O33" t="n">
-        <v>304.1193900416551</v>
+        <v>604.4651938003653</v>
       </c>
       <c r="P33" t="n">
-        <v>467.9617927818641</v>
+        <v>167.6159890231541</v>
       </c>
       <c r="Q33" t="n">
         <v>259.589995528033</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.19928980076932</v>
+        <v>74.19928980076931</v>
       </c>
       <c r="K34" t="n">
         <v>201.893407791204</v>
@@ -37245,7 +37245,7 @@
         <v>227.3700459622549</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.6208424541328</v>
+        <v>97.62084245413278</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>223.5339779741832</v>
+        <v>88.97942918532669</v>
       </c>
       <c r="K35" t="n">
-        <v>132.8385239411051</v>
+        <v>456.9839365122698</v>
       </c>
       <c r="L35" t="n">
         <v>202.0724422619475</v>
@@ -37315,19 +37315,19 @@
         <v>256.8338579593119</v>
       </c>
       <c r="N35" t="n">
-        <v>673.7721141563673</v>
+        <v>265.6501107964968</v>
       </c>
       <c r="O35" t="n">
         <v>618.1760870816025</v>
       </c>
       <c r="P35" t="n">
-        <v>246.5975732183935</v>
+        <v>489.5440560850739</v>
       </c>
       <c r="Q35" t="n">
         <v>289.6254210199503</v>
       </c>
       <c r="R35" t="n">
-        <v>24.41534328911834</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>139.5056294728908</v>
+        <v>13.41459413248197</v>
       </c>
       <c r="K36" t="n">
-        <v>366.3371824290211</v>
+        <v>101.8719454164425</v>
       </c>
       <c r="L36" t="n">
-        <v>554.6101933060396</v>
+        <v>314.5703171781796</v>
       </c>
       <c r="M36" t="n">
-        <v>234.0031368484574</v>
+        <v>673.7721141563674</v>
       </c>
       <c r="N36" t="n">
-        <v>254.7506903663541</v>
+        <v>673.7721141563674</v>
       </c>
       <c r="O36" t="n">
-        <v>304.1193900416546</v>
+        <v>604.4651938003653</v>
       </c>
       <c r="P36" t="n">
-        <v>467.9617927818641</v>
+        <v>149.4990241419269</v>
       </c>
       <c r="Q36" t="n">
-        <v>259.589995528033</v>
+        <v>49.5127077921839</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>178.833049722535</v>
+        <v>178.1100913691396</v>
       </c>
       <c r="K38" t="n">
-        <v>456.9839365122697</v>
+        <v>456.9839365122698</v>
       </c>
       <c r="L38" t="n">
-        <v>202.0724422619473</v>
+        <v>619.733656812398</v>
       </c>
       <c r="M38" t="n">
-        <v>673.7721141563675</v>
+        <v>256.8338579593119</v>
       </c>
       <c r="N38" t="n">
-        <v>673.7721141563675</v>
+        <v>673.7721141563676</v>
       </c>
       <c r="O38" t="n">
-        <v>237.375905818857</v>
+        <v>237.3759058188572</v>
       </c>
       <c r="P38" t="n">
-        <v>167.745347913591</v>
+        <v>167.7453479135913</v>
       </c>
       <c r="Q38" t="n">
-        <v>77.31043036004544</v>
+        <v>77.31043036004561</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>139.5056294728907</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K39" t="n">
-        <v>366.337182429021</v>
+        <v>366.3371824290211</v>
       </c>
       <c r="L39" t="n">
-        <v>554.6101933060395</v>
+        <v>554.6101933060396</v>
       </c>
       <c r="M39" t="n">
-        <v>234.0031368484572</v>
+        <v>327.5196523664762</v>
       </c>
       <c r="N39" t="n">
-        <v>254.7506903663539</v>
+        <v>254.7506903663541</v>
       </c>
       <c r="O39" t="n">
-        <v>304.1193900416555</v>
+        <v>210.6028745236358</v>
       </c>
       <c r="P39" t="n">
-        <v>467.9617927818639</v>
+        <v>467.9617927818641</v>
       </c>
       <c r="Q39" t="n">
-        <v>259.5899955280329</v>
+        <v>259.589995528033</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>122.3246739869213</v>
+        <v>122.3246739869214</v>
       </c>
       <c r="L40" t="n">
         <v>212.6207754717873</v>
       </c>
       <c r="M40" t="n">
-        <v>234.6728598343119</v>
+        <v>234.672859834312</v>
       </c>
       <c r="N40" t="n">
-        <v>234.5823752843096</v>
+        <v>234.5823752843097</v>
       </c>
       <c r="O40" t="n">
-        <v>200.4967155554701</v>
+        <v>200.4967155554702</v>
       </c>
       <c r="P40" t="n">
         <v>147.8013121579723</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.05210864985021</v>
+        <v>18.05210864985025</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>88.97942918532716</v>
+        <v>223.5339779741832</v>
       </c>
       <c r="K41" t="n">
         <v>456.9839365122698</v>
@@ -37786,22 +37786,22 @@
         <v>202.0724422619475</v>
       </c>
       <c r="M41" t="n">
-        <v>256.8338579593119</v>
+        <v>673.7721141563676</v>
       </c>
       <c r="N41" t="n">
         <v>265.6501107964968</v>
       </c>
       <c r="O41" t="n">
-        <v>618.1760870816025</v>
+        <v>237.3759058188572</v>
       </c>
       <c r="P41" t="n">
-        <v>489.5440560850739</v>
+        <v>294.4360890727901</v>
       </c>
       <c r="Q41" t="n">
         <v>289.6254210199503</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>24.41534328911834</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37871,13 +37871,13 @@
         <v>254.7506903663541</v>
       </c>
       <c r="O42" t="n">
-        <v>430.2104253820636</v>
+        <v>604.4651938003653</v>
       </c>
       <c r="P42" t="n">
         <v>467.9617927818641</v>
       </c>
       <c r="Q42" t="n">
-        <v>259.589995528033</v>
+        <v>85.33522710973106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>223.5339779741832</v>
       </c>
       <c r="K44" t="n">
-        <v>132.8385239411051</v>
+        <v>456.9839365122698</v>
       </c>
       <c r="L44" t="n">
-        <v>269.2019359215577</v>
+        <v>202.0724422619475</v>
       </c>
       <c r="M44" t="n">
-        <v>673.7721141563673</v>
+        <v>256.8338579593119</v>
       </c>
       <c r="N44" t="n">
-        <v>673.7721141563673</v>
+        <v>265.6501107964968</v>
       </c>
       <c r="O44" t="n">
-        <v>237.3759058188572</v>
+        <v>459.2061950036278</v>
       </c>
       <c r="P44" t="n">
-        <v>167.7453479135913</v>
+        <v>489.5440560850739</v>
       </c>
       <c r="Q44" t="n">
         <v>289.6254210199503</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>24.41534328911834</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>554.6101933060396</v>
       </c>
       <c r="M45" t="n">
-        <v>234.0031368484574</v>
+        <v>327.5196523664762</v>
       </c>
       <c r="N45" t="n">
-        <v>666.7299745243101</v>
+        <v>254.7506903663541</v>
       </c>
       <c r="O45" t="n">
         <v>210.6028745236358</v>
       </c>
       <c r="P45" t="n">
-        <v>149.4990241419269</v>
+        <v>467.9617927818641</v>
       </c>
       <c r="Q45" t="n">
         <v>259.589995528033</v>
